--- a/data/hotels_by_city/Houston/Houston_shard_65.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_65.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="460">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107930-Reviews-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Candlewood-Suites-Houston-By-The-Galleria.h84487.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1278 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r501886433-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107930</t>
+  </si>
+  <si>
+    <t>501886433</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>Value for money</t>
+  </si>
+  <si>
+    <t>This Candlewood is offering a lot for the dollar. Spacious room with well equipped kitchen (electric hob, coffeemaker, dishwasser). There's a starterkit with coffee and tea. Room is spacious. I found the bed ok, my wife was not impressed.Tip: be aware you are not located above or next the (smokers) gazebo. As the nights are hot and warm, so are the smokers loud and late.The airco had a strange tic tac toc sound ongoing. Switching off did not help.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r480619065-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480619065</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Decent Hotel with bad beds</t>
+  </si>
+  <si>
+    <t>I stayed a few nights at this hotel since my boyfriend was staying here as part of corporate housing.  Hotel right off of expressway. You could walk to subway if necessary or another local restaurant. The room was nice with a small kitchen. I was very impressed with the workout room.  They had free laundry was is a great perk.  However, the bed was extremely uncomfortable.  It was a struggle getting out of bed and I couldn't sleep well. One night would have been ok but after a few nights I was happy to leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>I stayed a few nights at this hotel since my boyfriend was staying here as part of corporate housing.  Hotel right off of expressway. You could walk to subway if necessary or another local restaurant. The room was nice with a small kitchen. I was very impressed with the workout room.  They had free laundry was is a great perk.  However, the bed was extremely uncomfortable.  It was a struggle getting out of bed and I couldn't sleep well. One night would have been ok but after a few nights I was happy to leave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r471350007-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471350007</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Super Bowl</t>
+  </si>
+  <si>
+    <t>We stayed at this location during our first ever trip to Houston and most importantly the Super Bowl. The price was engorged far beyond what this room was worth, the air did not work, there are no decent restaurants nearby and the service was below our expectations. The only positive about this property was it was close to the stadium and mall. Would not recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this location during our first ever trip to Houston and most importantly the Super Bowl. The price was engorged far beyond what this room was worth, the air did not work, there are no decent restaurants nearby and the service was below our expectations. The only positive about this property was it was close to the stadium and mall. Would not recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r436968214-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436968214</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>Surprising, Clean, Quiet Oasis in Galleria</t>
+  </si>
+  <si>
+    <t>We were looking for an everyday place with a good night's sleep and away from highway noise---and found a gem of a hotel! I wasn't familiar with the Candlewood Suites brand so I wasn't sure what to expect. I was tired of finding $50 places with super hard beds that left a lot to be desired, so when Candlewood Suites popped up in my search I decided, what do I have to lose? 
+I was incredibly surprised: While the location is in the Galleria area, it's really behind a large suburban, office complex that feels like you are right around the corner from the IRS offices. It's near one of the hospitals which I could tell makes up for some of the visitors (this is Houston after all). Suites were large, spacious, and included a kitchen, large ample desk, super clean bathrooms, sunblock window shades, and a very comfortable King bed. 
+The lobby looks like a mom and pop hotel, but don't be fooled. The management was extremely nice and the homey decor came with a nice gym (I didn't use it) and a food shop area that includes pretty much everything you might need for a quick bite. That avoids the trip to the convenience store around the corner.  Complimentary coffee was provided. 
+Bedsheets were soft and plenty of pillows were provided. The shower/tub was hot. Basic Pantene shampoo and soap were provided. So grab the extra shampoos you...We were looking for an everyday place with a good night's sleep and away from highway noise---and found a gem of a hotel! I wasn't familiar with the Candlewood Suites brand so I wasn't sure what to expect. I was tired of finding $50 places with super hard beds that left a lot to be desired, so when Candlewood Suites popped up in my search I decided, what do I have to lose? I was incredibly surprised: While the location is in the Galleria area, it's really behind a large suburban, office complex that feels like you are right around the corner from the IRS offices. It's near one of the hospitals which I could tell makes up for some of the visitors (this is Houston after all). Suites were large, spacious, and included a kitchen, large ample desk, super clean bathrooms, sunblock window shades, and a very comfortable King bed. The lobby looks like a mom and pop hotel, but don't be fooled. The management was extremely nice and the homey decor came with a nice gym (I didn't use it) and a food shop area that includes pretty much everything you might need for a quick bite. That avoids the trip to the convenience store around the corner.  Complimentary coffee was provided. Bedsheets were soft and plenty of pillows were provided. The shower/tub was hot. Basic Pantene shampoo and soap were provided. So grab the extra shampoos you collected at the Westin and make this work. I paid 200 for two nights. Also included is free Wifi and parking. The latter is important because at other places near this area, they list a price of say $95 or $110 but then stick you with a $25 parking charge that you don't find out until you arrive (Again, this is Houston, so par for the course).MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>We were looking for an everyday place with a good night's sleep and away from highway noise---and found a gem of a hotel! I wasn't familiar with the Candlewood Suites brand so I wasn't sure what to expect. I was tired of finding $50 places with super hard beds that left a lot to be desired, so when Candlewood Suites popped up in my search I decided, what do I have to lose? 
+I was incredibly surprised: While the location is in the Galleria area, it's really behind a large suburban, office complex that feels like you are right around the corner from the IRS offices. It's near one of the hospitals which I could tell makes up for some of the visitors (this is Houston after all). Suites were large, spacious, and included a kitchen, large ample desk, super clean bathrooms, sunblock window shades, and a very comfortable King bed. 
+The lobby looks like a mom and pop hotel, but don't be fooled. The management was extremely nice and the homey decor came with a nice gym (I didn't use it) and a food shop area that includes pretty much everything you might need for a quick bite. That avoids the trip to the convenience store around the corner.  Complimentary coffee was provided. 
+Bedsheets were soft and plenty of pillows were provided. The shower/tub was hot. Basic Pantene shampoo and soap were provided. So grab the extra shampoos you...We were looking for an everyday place with a good night's sleep and away from highway noise---and found a gem of a hotel! I wasn't familiar with the Candlewood Suites brand so I wasn't sure what to expect. I was tired of finding $50 places with super hard beds that left a lot to be desired, so when Candlewood Suites popped up in my search I decided, what do I have to lose? I was incredibly surprised: While the location is in the Galleria area, it's really behind a large suburban, office complex that feels like you are right around the corner from the IRS offices. It's near one of the hospitals which I could tell makes up for some of the visitors (this is Houston after all). Suites were large, spacious, and included a kitchen, large ample desk, super clean bathrooms, sunblock window shades, and a very comfortable King bed. The lobby looks like a mom and pop hotel, but don't be fooled. The management was extremely nice and the homey decor came with a nice gym (I didn't use it) and a food shop area that includes pretty much everything you might need for a quick bite. That avoids the trip to the convenience store around the corner.  Complimentary coffee was provided. Bedsheets were soft and plenty of pillows were provided. The shower/tub was hot. Basic Pantene shampoo and soap were provided. So grab the extra shampoos you collected at the Westin and make this work. I paid 200 for two nights. Also included is free Wifi and parking. The latter is important because at other places near this area, they list a price of say $95 or $110 but then stick you with a $25 parking charge that you don't find out until you arrive (Again, this is Houston, so par for the course).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r429714660-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429714660</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Made us feel welcomed</t>
+  </si>
+  <si>
+    <t>Everything about Candlewood was very nice from the people to the hotel itself. I was especially impressed with Beatriz who was warm, kind, and helpful to my husband and myself while making our initial reservation and when booking our second reservation for just a few days later. We waited to book our second reservation until we saw how the first one went. Because we were so impressed with Candlewood, we booked it again.
+Upon arriving, as IHG members, we received a gift bag with a bottled water and a bag of nuts with a welcome note. The second visit we received bottled water. Our room is perfect for extended and overnight stays. You walk into a full kitchen with wood-like floors, complete with utensils. The living/bedroom area is carpeted.  The bed coverings were white and very clean. The bed was soft and comfy. There is plenty of desk/work space, with an eating bar at the end near the kitchen. My husband especially enjoyed the leather recliner. Plugs were abundant. The TV was big...and there was a DVR. Both rooms were totally quiet. I honestly looked for something that should have been addressed, but both rooms were very clean...the bathroom was spotless. Great towels! Everything was perfect!
+I did hear the person above us walking around, so the second stay I asked for the top floor (3rd floor) and that issue was solved. There is a faint smell of cigarette smoke...Everything about Candlewood was very nice from the people to the hotel itself. I was especially impressed with Beatriz who was warm, kind, and helpful to my husband and myself while making our initial reservation and when booking our second reservation for just a few days later. We waited to book our second reservation until we saw how the first one went. Because we were so impressed with Candlewood, we booked it again.Upon arriving, as IHG members, we received a gift bag with a bottled water and a bag of nuts with a welcome note. The second visit we received bottled water. Our room is perfect for extended and overnight stays. You walk into a full kitchen with wood-like floors, complete with utensils. The living/bedroom area is carpeted.  The bed coverings were white and very clean. The bed was soft and comfy. There is plenty of desk/work space, with an eating bar at the end near the kitchen. My husband especially enjoyed the leather recliner. Plugs were abundant. The TV was big...and there was a DVR. Both rooms were totally quiet. I honestly looked for something that should have been addressed, but both rooms were very clean...the bathroom was spotless. Great towels! Everything was perfect!I did hear the person above us walking around, so the second stay I asked for the top floor (3rd floor) and that issue was solved. There is a faint smell of cigarette smoke around the elevator on both the second and third floors, but that's the only place I noticed it.Great hotel!! I would definitely stay there again. Perfect location for the Galleria and Greenway Plaza! Tons of restaurants around, shopping centers are very close. Outside free parking. Workout room. Food vending machines. Highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Everything about Candlewood was very nice from the people to the hotel itself. I was especially impressed with Beatriz who was warm, kind, and helpful to my husband and myself while making our initial reservation and when booking our second reservation for just a few days later. We waited to book our second reservation until we saw how the first one went. Because we were so impressed with Candlewood, we booked it again.
+Upon arriving, as IHG members, we received a gift bag with a bottled water and a bag of nuts with a welcome note. The second visit we received bottled water. Our room is perfect for extended and overnight stays. You walk into a full kitchen with wood-like floors, complete with utensils. The living/bedroom area is carpeted.  The bed coverings were white and very clean. The bed was soft and comfy. There is plenty of desk/work space, with an eating bar at the end near the kitchen. My husband especially enjoyed the leather recliner. Plugs were abundant. The TV was big...and there was a DVR. Both rooms were totally quiet. I honestly looked for something that should have been addressed, but both rooms were very clean...the bathroom was spotless. Great towels! Everything was perfect!
+I did hear the person above us walking around, so the second stay I asked for the top floor (3rd floor) and that issue was solved. There is a faint smell of cigarette smoke...Everything about Candlewood was very nice from the people to the hotel itself. I was especially impressed with Beatriz who was warm, kind, and helpful to my husband and myself while making our initial reservation and when booking our second reservation for just a few days later. We waited to book our second reservation until we saw how the first one went. Because we were so impressed with Candlewood, we booked it again.Upon arriving, as IHG members, we received a gift bag with a bottled water and a bag of nuts with a welcome note. The second visit we received bottled water. Our room is perfect for extended and overnight stays. You walk into a full kitchen with wood-like floors, complete with utensils. The living/bedroom area is carpeted.  The bed coverings were white and very clean. The bed was soft and comfy. There is plenty of desk/work space, with an eating bar at the end near the kitchen. My husband especially enjoyed the leather recliner. Plugs were abundant. The TV was big...and there was a DVR. Both rooms were totally quiet. I honestly looked for something that should have been addressed, but both rooms were very clean...the bathroom was spotless. Great towels! Everything was perfect!I did hear the person above us walking around, so the second stay I asked for the top floor (3rd floor) and that issue was solved. There is a faint smell of cigarette smoke around the elevator on both the second and third floors, but that's the only place I noticed it.Great hotel!! I would definitely stay there again. Perfect location for the Galleria and Greenway Plaza! Tons of restaurants around, shopping centers are very close. Outside free parking. Workout room. Food vending machines. Highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r426109319-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>426109319</t>
+  </si>
+  <si>
+    <t>10/08/2016</t>
+  </si>
+  <si>
+    <t>Candlewood</t>
+  </si>
+  <si>
+    <t>Very good place to stay. It has a full sized refrigerator, microwave, and sink in the kicthen. The living area is spacious as well as the bedroom and bathroom. The staff have been gety helpful and attentive. There was security in the parking lot last night as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r385541536-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385541536</t>
+  </si>
+  <si>
+    <t>06/24/2016</t>
+  </si>
+  <si>
+    <t>Clutch</t>
+  </si>
+  <si>
+    <t>Got the last room during a busy night of the week (major sporting event) with zero notice for a reasonable price. Friendly graveyard staff and a little shop, I love a little shop.  The room was big, clean, modern, and full of little details. A work desk, leather recliner, nice textured bedding, and complimentary bag of popcorn ready to be popped in the kitchen's microwave.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r358553430-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358553430</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Long Term Military Family</t>
+  </si>
+  <si>
+    <t>I would like to say that we have been here since December and the staff have been ever so helpful Hillary goes beyond call of duty  and all staff I would have to say are pleasant and help you whenever need I would recommend this location to any military member or veteran. Pricing is good rooms are clean love the free laundry and it's great to have the Candlewood cupboard if you need something and don't want to rush out to get.  I actually witness a guest demanding  water from the front desk one  he was ever so rude and this was a nightly thing he would expect water because of his membership with IHG actually I am the same membership level if I wanted free water I would go to the Inter Cont and get a suite knowing I would have water on a nightly basic. The front desk lady wasn't rude at all she was simply asking the guest would he like her next time she goes to the store to pick up a carton of WaterMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>I would like to say that we have been here since December and the staff have been ever so helpful Hillary goes beyond call of duty  and all staff I would have to say are pleasant and help you whenever need I would recommend this location to any military member or veteran. Pricing is good rooms are clean love the free laundry and it's great to have the Candlewood cupboard if you need something and don't want to rush out to get.  I actually witness a guest demanding  water from the front desk one  he was ever so rude and this was a nightly thing he would expect water because of his membership with IHG actually I am the same membership level if I wanted free water I would go to the Inter Cont and get a suite knowing I would have water on a nightly basic. The front desk lady wasn't rude at all she was simply asking the guest would he like her next time she goes to the store to pick up a carton of WaterMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r352111874-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352111874</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>World Championship BBQ Competition</t>
+  </si>
+  <si>
+    <t>We've stayed at this hotel off &amp; on for the past few years. We have decided to return annually &amp; get a block of rooms. This place can simply not be beat. Rooms are clean, bathroom spacious, wonderful big showers, soft towels, kitchen is equipped with just about anything you could need, soft comfy beds, quiet...nothing else to ask for - IT IS HERE! We are exhausted when we finally return from BBQ and just want peace &amp; quiet and a good nights sleep. We receive all that &amp; more. BONUS - the staff is AMAZING!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r344296969-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344296969</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>The hotel is location in a great location just off 610 &amp; 59 with the galleria is right around the corner. The hotel and it's grounds are in great condition. The gill area is very useful, but there are plenty of restaurants around to choose from. Hillary at the front desk was fantastic.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r343423913-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343423913</t>
+  </si>
+  <si>
+    <t>01/28/2016</t>
+  </si>
+  <si>
+    <t>OK hotel for budget prices and good location</t>
+  </si>
+  <si>
+    <t>The rooms were quite good and comfortable. They had several nights of problems with their fire alarms going off in the middle of the night. The staff was very helpful with this and went out of their way for us. They  ultimately got the problem fixed. ONE HOTEL STAFF PERSON WAS EXCEPTIONAL and that was Hilary Rickard. She was at the front desk and was nice and very helpful. I would return just for her.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded February 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2016</t>
+  </si>
+  <si>
+    <t>The rooms were quite good and comfortable. They had several nights of problems with their fire alarms going off in the middle of the night. The staff was very helpful with this and went out of their way for us. They  ultimately got the problem fixed. ONE HOTEL STAFF PERSON WAS EXCEPTIONAL and that was Hilary Rickard. She was at the front desk and was nice and very helpful. I would return just for her.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r336787247-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>336787247</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t>MOLLIE and I</t>
+  </si>
+  <si>
+    <t>My young daughter and I, just two girls off to see the big city, what a trip. A neighbor gave me a heads up on this hotel and I was not disappointed. From the wonderful girl at the front desk, more about her later, to a really nice clean room, this is a great place to stay. Our room was on the third floor and had everything two people would need in the kitchen, it was really surprising to find it that well stocked. There was even a bag of microwave popcorn and two bowls in the micro. It was a fun stay all in all. They have a room on the first floor with ice cream, frozen foods, chips ,soda all manner of snacks and sweets and treats. There is another area where you can borrow small kitchen appliances or you can go to the desk and borrow CDs for the player in your room. If you need anything talk to the young girl at the desk, her name is Hillary, I left that hotel with a very warm feeling for that young lady. My daughter is very shy and a little withdrawn, it's the age. Hillary picked up on that right off and went out of her way to befriend Mollie. On the way home I had to promise and cross my heart that next summer we'll go see Hillary again and maybe have supper together. Thank you...My young daughter and I, just two girls off to see the big city, what a trip. A neighbor gave me a heads up on this hotel and I was not disappointed. From the wonderful girl at the front desk, more about her later, to a really nice clean room, this is a great place to stay. Our room was on the third floor and had everything two people would need in the kitchen, it was really surprising to find it that well stocked. There was even a bag of microwave popcorn and two bowls in the micro. It was a fun stay all in all. They have a room on the first floor with ice cream, frozen foods, chips ,soda all manner of snacks and sweets and treats. There is another area where you can borrow small kitchen appliances or you can go to the desk and borrow CDs for the player in your room. If you need anything talk to the young girl at the desk, her name is Hillary, I left that hotel with a very warm feeling for that young lady. My daughter is very shy and a little withdrawn, it's the age. Hillary picked up on that right off and went out of her way to befriend Mollie. On the way home I had to promise and cross my heart that next summer we'll go see Hillary again and maybe have supper together. Thank you Hillary for your kindness and sweetness. I found the room very clean and well kept, even the dishes were spotless. The staff seem approachable and friendly and maybe this rubs off on the guests you pass in the hallways, it just feels very safe. So, to sum it up in 500 words or less, I found this hotel safe , clean , well stocked, affordable and staffed with people that smiled and helped. I can't end this without thanking Hillary for the helpful directions around Houston and where to find the best shopping and food and for the extras you gave Mollie that were not part of your job but are part of your kindness...May and MollieMoreShow less</t>
+  </si>
+  <si>
+    <t>Denise R, Director of Sales at Candlewood Suites Houston by the Galleria, responded to this reviewResponded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2016</t>
+  </si>
+  <si>
+    <t>My young daughter and I, just two girls off to see the big city, what a trip. A neighbor gave me a heads up on this hotel and I was not disappointed. From the wonderful girl at the front desk, more about her later, to a really nice clean room, this is a great place to stay. Our room was on the third floor and had everything two people would need in the kitchen, it was really surprising to find it that well stocked. There was even a bag of microwave popcorn and two bowls in the micro. It was a fun stay all in all. They have a room on the first floor with ice cream, frozen foods, chips ,soda all manner of snacks and sweets and treats. There is another area where you can borrow small kitchen appliances or you can go to the desk and borrow CDs for the player in your room. If you need anything talk to the young girl at the desk, her name is Hillary, I left that hotel with a very warm feeling for that young lady. My daughter is very shy and a little withdrawn, it's the age. Hillary picked up on that right off and went out of her way to befriend Mollie. On the way home I had to promise and cross my heart that next summer we'll go see Hillary again and maybe have supper together. Thank you...My young daughter and I, just two girls off to see the big city, what a trip. A neighbor gave me a heads up on this hotel and I was not disappointed. From the wonderful girl at the front desk, more about her later, to a really nice clean room, this is a great place to stay. Our room was on the third floor and had everything two people would need in the kitchen, it was really surprising to find it that well stocked. There was even a bag of microwave popcorn and two bowls in the micro. It was a fun stay all in all. They have a room on the first floor with ice cream, frozen foods, chips ,soda all manner of snacks and sweets and treats. There is another area where you can borrow small kitchen appliances or you can go to the desk and borrow CDs for the player in your room. If you need anything talk to the young girl at the desk, her name is Hillary, I left that hotel with a very warm feeling for that young lady. My daughter is very shy and a little withdrawn, it's the age. Hillary picked up on that right off and went out of her way to befriend Mollie. On the way home I had to promise and cross my heart that next summer we'll go see Hillary again and maybe have supper together. Thank you Hillary for your kindness and sweetness. I found the room very clean and well kept, even the dishes were spotless. The staff seem approachable and friendly and maybe this rubs off on the guests you pass in the hallways, it just feels very safe. So, to sum it up in 500 words or less, I found this hotel safe , clean , well stocked, affordable and staffed with people that smiled and helped. I can't end this without thanking Hillary for the helpful directions around Houston and where to find the best shopping and food and for the extras you gave Mollie that were not part of your job but are part of your kindness...May and MollieMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r312501617-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>312501617</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Mold</t>
+  </si>
+  <si>
+    <t>This is my third stay here.  The first two stays were pretty much ok.  This time, the first room they gave me reeked of mold so bad it made my eyes burn.  The carpets were damp, even in the closet.  I was given a second room that was better but it was still damp, smelled faintly of mold and the carpets were dirty.  For God's sake, replace the carpets with a hard surface and invest in a humidifier system.  This is a health hazard.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2015</t>
+  </si>
+  <si>
+    <t>This is my third stay here.  The first two stays were pretty much ok.  This time, the first room they gave me reeked of mold so bad it made my eyes burn.  The carpets were damp, even in the closet.  I was given a second room that was better but it was still damp, smelled faintly of mold and the carpets were dirty.  For God's sake, replace the carpets with a hard surface and invest in a humidifier system.  This is a health hazard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r300251793-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>300251793</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Moist and Mold smell; AC's shouts during nights</t>
+  </si>
+  <si>
+    <t>This is not a typical candle wood suites hotel at all, very disappointing , I keep changing room and never got rid of mold smell and itchiness in skin. Many fellow roomies shared the same view. All room servicers, blame humidity in Houston as the only reason for their faulty ventilating and ac units.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded September 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2015</t>
+  </si>
+  <si>
+    <t>This is not a typical candle wood suites hotel at all, very disappointing , I keep changing room and never got rid of mold smell and itchiness in skin. Many fellow roomies shared the same view. All room servicers, blame humidity in Houston as the only reason for their faulty ventilating and ac units.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r299352103-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299352103</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>Hilary, Thank You For your Kindness, We'll Be Back !</t>
+  </si>
+  <si>
+    <t>Traveling for medical reasons we found this hotel by accident 4 weeks before we stayed there. The young lady at the desk, Hilary, went out of her way to answer our questions and show us "her" hotel. The back story is that we had just spent a week in a terrible hotel and were on our way home 350 miles away knowing we had to come back in 4 weeks for another week. As we drove by this hotel my smart wife decided this time she was going to do the picking so we stopped and went in. After all the questions Hilary must have realized we were damaged so she offered to show us a room. After more questions Hilary reserved a room for us and we headed home. Four weeks later we showed up and Hilary still remembered us, no wonder. The room we were given was spotless, I wore white socks and they stayed white. The house keeping staff are great, it was really that clean. Everything we needed was in that room or available at the front desk plus everybody is friendly.
+      We found out we have to go back to Houston in 6 weeks, more medical, and gave thoughts to changing to the Candlewood Suites hotel closer to the hospitals. My wife and I talked and we just couldn't do it, We're going to stay at Hilary's hotel, heck we even went down and she...Traveling for medical reasons we found this hotel by accident 4 weeks before we stayed there. The young lady at the desk, Hilary, went out of her way to answer our questions and show us "her" hotel. The back story is that we had just spent a week in a terrible hotel and were on our way home 350 miles away knowing we had to come back in 4 weeks for another week. As we drove by this hotel my smart wife decided this time she was going to do the picking so we stopped and went in. After all the questions Hilary must have realized we were damaged so she offered to show us a room. After more questions Hilary reserved a room for us and we headed home. Four weeks later we showed up and Hilary still remembered us, no wonder. The room we were given was spotless, I wore white socks and they stayed white. The house keeping staff are great, it was really that clean. Everything we needed was in that room or available at the front desk plus everybody is friendly.      We found out we have to go back to Houston in 6 weeks, more medical, and gave thoughts to changing to the Candlewood Suites hotel closer to the hospitals. My wife and I talked and we just couldn't do it, We're going to stay at Hilary's hotel, heck we even went down and she reserved a room in September and did the paperwork for us. If you have questions, are a little lost or just want a great smile, look this lovely lady up. Marilyn &amp; VinceMoreShow less</t>
+  </si>
+  <si>
+    <t>Traveling for medical reasons we found this hotel by accident 4 weeks before we stayed there. The young lady at the desk, Hilary, went out of her way to answer our questions and show us "her" hotel. The back story is that we had just spent a week in a terrible hotel and were on our way home 350 miles away knowing we had to come back in 4 weeks for another week. As we drove by this hotel my smart wife decided this time she was going to do the picking so we stopped and went in. After all the questions Hilary must have realized we were damaged so she offered to show us a room. After more questions Hilary reserved a room for us and we headed home. Four weeks later we showed up and Hilary still remembered us, no wonder. The room we were given was spotless, I wore white socks and they stayed white. The house keeping staff are great, it was really that clean. Everything we needed was in that room or available at the front desk plus everybody is friendly.
+      We found out we have to go back to Houston in 6 weeks, more medical, and gave thoughts to changing to the Candlewood Suites hotel closer to the hospitals. My wife and I talked and we just couldn't do it, We're going to stay at Hilary's hotel, heck we even went down and she...Traveling for medical reasons we found this hotel by accident 4 weeks before we stayed there. The young lady at the desk, Hilary, went out of her way to answer our questions and show us "her" hotel. The back story is that we had just spent a week in a terrible hotel and were on our way home 350 miles away knowing we had to come back in 4 weeks for another week. As we drove by this hotel my smart wife decided this time she was going to do the picking so we stopped and went in. After all the questions Hilary must have realized we were damaged so she offered to show us a room. After more questions Hilary reserved a room for us and we headed home. Four weeks later we showed up and Hilary still remembered us, no wonder. The room we were given was spotless, I wore white socks and they stayed white. The house keeping staff are great, it was really that clean. Everything we needed was in that room or available at the front desk plus everybody is friendly.      We found out we have to go back to Houston in 6 weeks, more medical, and gave thoughts to changing to the Candlewood Suites hotel closer to the hospitals. My wife and I talked and we just couldn't do it, We're going to stay at Hilary's hotel, heck we even went down and she reserved a room in September and did the paperwork for us. If you have questions, are a little lost or just want a great smile, look this lovely lady up. Marilyn &amp; VinceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r274527952-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274527952</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Good-value family hotel, close by the Galleria, but not walking distance</t>
+  </si>
+  <si>
+    <t>I visit Houston fairly regularly for business, staying at the Downtown mostly. For this trip, I wanted to stay near the Houston Galleria and opted for the Candlewood Suites for a change.
+From Google map, I saw how "close" this hotel was to the Galleria, and thought that it would be an easy walk (I like to walk) to and from these two places. But I forget how BIG Houston is, and Candlewood Suites By The Galleria isn't exactly by the Galleria. Its a 30-minute fairly inconvenient walk, crossing one major highway before you actually get to the Galleria. And I was reminded by my colleagues that people don't walk in Houston, which is a shame. It would have been a fantastic option if the Galleria area has a dedicated walking/cycling route.
+Anyhow, back to the hotel - this was my first stay at the Candlewood Suites, The hotel is definitely value-for-money - excellent bed/sleep, with a full-functioning kitchenette area.
+The gym was adequate for my needs - one multi-gym, a treadmill, two cross trainers, and free weights, which works if you want to have a quick work-out. The hotel is also equipped with a laundry facility, and the Candlewood Cupboard (where you have a selection of food stuff you buy if you need). But if you prefer eating out, Boudreaux's Cajun Kitchen and Subway are a 5-min walk away, next to the Home Depot.
+As my previous suggestion, perhaps...I visit Houston fairly regularly for business, staying at the Downtown mostly. For this trip, I wanted to stay near the Houston Galleria and opted for the Candlewood Suites for a change.From Google map, I saw how "close" this hotel was to the Galleria, and thought that it would be an easy walk (I like to walk) to and from these two places. But I forget how BIG Houston is, and Candlewood Suites By The Galleria isn't exactly by the Galleria. Its a 30-minute fairly inconvenient walk, crossing one major highway before you actually get to the Galleria. And I was reminded by my colleagues that people don't walk in Houston, which is a shame. It would have been a fantastic option if the Galleria area has a dedicated walking/cycling route.Anyhow, back to the hotel - this was my first stay at the Candlewood Suites, The hotel is definitely value-for-money - excellent bed/sleep, with a full-functioning kitchenette area.The gym was adequate for my needs - one multi-gym, a treadmill, two cross trainers, and free weights, which works if you want to have a quick work-out. The hotel is also equipped with a laundry facility, and the Candlewood Cupboard (where you have a selection of food stuff you buy if you need). But if you prefer eating out, Boudreaux's Cajun Kitchen and Subway are a 5-min walk away, next to the Home Depot.As my previous suggestion, perhaps the hotel may want to give IHG points to its members if the member elect not to have his room clean daily - save resources.If you have a car, I would recommend this hotel for its value-for-money, no nonsense facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Denise R, Director of Sales at Candlewood Suites Houston by the Galleria, responded to this reviewResponded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2015</t>
+  </si>
+  <si>
+    <t>I visit Houston fairly regularly for business, staying at the Downtown mostly. For this trip, I wanted to stay near the Houston Galleria and opted for the Candlewood Suites for a change.
+From Google map, I saw how "close" this hotel was to the Galleria, and thought that it would be an easy walk (I like to walk) to and from these two places. But I forget how BIG Houston is, and Candlewood Suites By The Galleria isn't exactly by the Galleria. Its a 30-minute fairly inconvenient walk, crossing one major highway before you actually get to the Galleria. And I was reminded by my colleagues that people don't walk in Houston, which is a shame. It would have been a fantastic option if the Galleria area has a dedicated walking/cycling route.
+Anyhow, back to the hotel - this was my first stay at the Candlewood Suites, The hotel is definitely value-for-money - excellent bed/sleep, with a full-functioning kitchenette area.
+The gym was adequate for my needs - one multi-gym, a treadmill, two cross trainers, and free weights, which works if you want to have a quick work-out. The hotel is also equipped with a laundry facility, and the Candlewood Cupboard (where you have a selection of food stuff you buy if you need). But if you prefer eating out, Boudreaux's Cajun Kitchen and Subway are a 5-min walk away, next to the Home Depot.
+As my previous suggestion, perhaps...I visit Houston fairly regularly for business, staying at the Downtown mostly. For this trip, I wanted to stay near the Houston Galleria and opted for the Candlewood Suites for a change.From Google map, I saw how "close" this hotel was to the Galleria, and thought that it would be an easy walk (I like to walk) to and from these two places. But I forget how BIG Houston is, and Candlewood Suites By The Galleria isn't exactly by the Galleria. Its a 30-minute fairly inconvenient walk, crossing one major highway before you actually get to the Galleria. And I was reminded by my colleagues that people don't walk in Houston, which is a shame. It would have been a fantastic option if the Galleria area has a dedicated walking/cycling route.Anyhow, back to the hotel - this was my first stay at the Candlewood Suites, The hotel is definitely value-for-money - excellent bed/sleep, with a full-functioning kitchenette area.The gym was adequate for my needs - one multi-gym, a treadmill, two cross trainers, and free weights, which works if you want to have a quick work-out. The hotel is also equipped with a laundry facility, and the Candlewood Cupboard (where you have a selection of food stuff you buy if you need). But if you prefer eating out, Boudreaux's Cajun Kitchen and Subway are a 5-min walk away, next to the Home Depot.As my previous suggestion, perhaps the hotel may want to give IHG points to its members if the member elect not to have his room clean daily - save resources.If you have a car, I would recommend this hotel for its value-for-money, no nonsense facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r271878046-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271878046</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>Difficult access and out of the way location</t>
+  </si>
+  <si>
+    <t>This hotel is tucked behind a large office tower. A bit hard to find and really nothing in the immediate area so you have to drive to get anything. The rooms are large but very basic furnishings.This was my first time in a Candlewood Suites and I found it much more basic than other brands of long term stay type. The lack of breakfast options were a real disappointment as other brands have much better offerings.Good for a one night stay but there are better options.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is tucked behind a large office tower. A bit hard to find and really nothing in the immediate area so you have to drive to get anything. The rooms are large but very basic furnishings.This was my first time in a Candlewood Suites and I found it much more basic than other brands of long term stay type. The lack of breakfast options were a real disappointment as other brands have much better offerings.Good for a one night stay but there are better options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r259877570-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259877570</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>When in Houston. Stay here</t>
+  </si>
+  <si>
+    <t>Been here a few weeks. Room nice layout and modern upgrades. Full size frig and dishwasher. Huge laundry room with lots of machines. Great modern gym. Plenty of parking. Friendly staff. Super easy access to local highways. Cajun eatery within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Been here a few weeks. Room nice layout and modern upgrades. Full size frig and dishwasher. Huge laundry room with lots of machines. Great modern gym. Plenty of parking. Friendly staff. Super easy access to local highways. Cajun eatery within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r254575093-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254575093</t>
+  </si>
+  <si>
+    <t>02/16/2015</t>
+  </si>
+  <si>
+    <t>Poor customer service &amp; dishonest!</t>
+  </si>
+  <si>
+    <t>This is the first time I was not impressed with a hotel, especially with the IHG line. When I arrived they seemed to be short staffed and our rooms weren't ready. The front desk clerk seemed overwhelmed and had an attitude. He did not explain the instructions correctly for charging my card or putting any authorization on it &amp; I have never heard of needing a 3rd party form to take payment over the phone. The maids never came to clean my room and when I requested new towels it took almost an hour to receive them. The vending machines with food/drinks were way over priced and I was not happy how they treated my guest that were staying with me. Upon check out I asked about the IHG goodie bags and why I had not received one and the front desk female replied that they were only for members, which if she check my reservation or asked me she would of known that I am a member. I am used to getting this upon arrival and the way she responded to me was like I was not good enough to receive a small bottle of water and snacks. The room was ok but I was also curious why there wasn't any ventilation system in the bathroom because it got real hot and steamy when trying to take a shower there was no where for the air to go. This...This is the first time I was not impressed with a hotel, especially with the IHG line. When I arrived they seemed to be short staffed and our rooms weren't ready. The front desk clerk seemed overwhelmed and had an attitude. He did not explain the instructions correctly for charging my card or putting any authorization on it &amp; I have never heard of needing a 3rd party form to take payment over the phone. The maids never came to clean my room and when I requested new towels it took almost an hour to receive them. The vending machines with food/drinks were way over priced and I was not happy how they treated my guest that were staying with me. Upon check out I asked about the IHG goodie bags and why I had not received one and the front desk female replied that they were only for members, which if she check my reservation or asked me she would of known that I am a member. I am used to getting this upon arrival and the way she responded to me was like I was not good enough to receive a small bottle of water and snacks. The room was ok but I was also curious why there wasn't any ventilation system in the bathroom because it got real hot and steamy when trying to take a shower there was no where for the air to go. This made it hard to style hair. I was very disappointed with this hotel. Another concern is that my jewelry was stolen and the manager is not taking this seriously but instead making excuses for her staff &amp; making me feel as if it my fault my jewerly is missing. She hung up on my mother when she called to inquire about the situation and overall this was an unacceptable stay. As a veteran who had to drive 3 hours back home exhausted I did not appreciate the lack of concern for my valuables nor the disrespect towards myself &amp; my loving mother. This matter has yet to be resolved and I am filing a police report.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded March 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2015</t>
+  </si>
+  <si>
+    <t>This is the first time I was not impressed with a hotel, especially with the IHG line. When I arrived they seemed to be short staffed and our rooms weren't ready. The front desk clerk seemed overwhelmed and had an attitude. He did not explain the instructions correctly for charging my card or putting any authorization on it &amp; I have never heard of needing a 3rd party form to take payment over the phone. The maids never came to clean my room and when I requested new towels it took almost an hour to receive them. The vending machines with food/drinks were way over priced and I was not happy how they treated my guest that were staying with me. Upon check out I asked about the IHG goodie bags and why I had not received one and the front desk female replied that they were only for members, which if she check my reservation or asked me she would of known that I am a member. I am used to getting this upon arrival and the way she responded to me was like I was not good enough to receive a small bottle of water and snacks. The room was ok but I was also curious why there wasn't any ventilation system in the bathroom because it got real hot and steamy when trying to take a shower there was no where for the air to go. This...This is the first time I was not impressed with a hotel, especially with the IHG line. When I arrived they seemed to be short staffed and our rooms weren't ready. The front desk clerk seemed overwhelmed and had an attitude. He did not explain the instructions correctly for charging my card or putting any authorization on it &amp; I have never heard of needing a 3rd party form to take payment over the phone. The maids never came to clean my room and when I requested new towels it took almost an hour to receive them. The vending machines with food/drinks were way over priced and I was not happy how they treated my guest that were staying with me. Upon check out I asked about the IHG goodie bags and why I had not received one and the front desk female replied that they were only for members, which if she check my reservation or asked me she would of known that I am a member. I am used to getting this upon arrival and the way she responded to me was like I was not good enough to receive a small bottle of water and snacks. The room was ok but I was also curious why there wasn't any ventilation system in the bathroom because it got real hot and steamy when trying to take a shower there was no where for the air to go. This made it hard to style hair. I was very disappointed with this hotel. Another concern is that my jewelry was stolen and the manager is not taking this seriously but instead making excuses for her staff &amp; making me feel as if it my fault my jewerly is missing. She hung up on my mother when she called to inquire about the situation and overall this was an unacceptable stay. As a veteran who had to drive 3 hours back home exhausted I did not appreciate the lack of concern for my valuables nor the disrespect towards myself &amp; my loving mother. This matter has yet to be resolved and I am filing a police report.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r254550213-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254550213</t>
+  </si>
+  <si>
+    <t>TERRIBLE SERVICE!!!!!!!</t>
+  </si>
+  <si>
+    <t>Do not reserve a room with them.They are really really disrespectful,rude.They stole jewelry,lied also hung up on my mother.beware of staff and stealing.so i advise you to not reserve hotel from here.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded March 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2015</t>
+  </si>
+  <si>
+    <t>Do not reserve a room with them.They are really really disrespectful,rude.They stole jewelry,lied also hung up on my mother.beware of staff and stealing.so i advise you to not reserve hotel from here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r253273374-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253273374</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>great service!  clean and comfortable!  good price for Galleria area!</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights at the Candlewood Suites.  It was very clean and comfortable.  The staff were fantastic!  There's a snack bar that is well stocked and a movie lending library.  The units are suites with kitchens, which was very convenient.  Great wifi.  Excellent water pressure. Gym on site.  The tub and fridge look a little dated, but both were clean and functional.  For the price, this was a fantastic find!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r238509192-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238509192</t>
+  </si>
+  <si>
+    <t>11/06/2014</t>
+  </si>
+  <si>
+    <t>Nice staff, room smelled like a cigarette</t>
+  </si>
+  <si>
+    <t>This hotel is tucked away near the Galleria. Friendly staff, my room and the hallway to it smelled like cigarettes. Work out room was above average. They have free rental movies for the dvd in the room.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r232755098-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>232755098</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>Great service!</t>
+  </si>
+  <si>
+    <t>The front desk agent was super nice when we checked in &amp; every time that I came to the desk, she remembered my name &amp; room number. The rooms have obviously been updated, which was nice &amp; the amenities of the Candlewood cupboard were handy! The hotel is in an easy location to get to things around Houston, and a very safe part I would say!</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r225951817-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225951817</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Worst Candlewood Experience...Ever</t>
+  </si>
+  <si>
+    <t>My husband and I arrived at the Candlewood Suites about 11:00 pm. There was a line about 4 people long to check in and it took us almost 20 minutes to get a room.  When we did get a room, we opened the door and the room was a mess. The smell was disgusting, there were dirty dishes all over and underwear on the floor! We closed the door immediately and went back to the desk for another room.  The lady at the front apologized and we got a different room on the second floor. When we got to our second room, the door was open.  We found this sort of strange because anyone could have just walked in used the room after it was cleaned.  We went ahead and stayed in this room because we were exhausted.  During our stay, our room was not cleaned and we had to get our own new towels. Our room key stopped working and we couldn't get in to the building at midnight.  Overall we were very disappointed with many things including:  the price of the rooms for the quality, the terrible maid service, dirty rooms, unlocked door to our room (strange), difficulty with room key, lack of toiletries, and overall cleanliness. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>My husband and I arrived at the Candlewood Suites about 11:00 pm. There was a line about 4 people long to check in and it took us almost 20 minutes to get a room.  When we did get a room, we opened the door and the room was a mess. The smell was disgusting, there were dirty dishes all over and underwear on the floor! We closed the door immediately and went back to the desk for another room.  The lady at the front apologized and we got a different room on the second floor. When we got to our second room, the door was open.  We found this sort of strange because anyone could have just walked in used the room after it was cleaned.  We went ahead and stayed in this room because we were exhausted.  During our stay, our room was not cleaned and we had to get our own new towels. Our room key stopped working and we couldn't get in to the building at midnight.  Overall we were very disappointed with many things including:  the price of the rooms for the quality, the terrible maid service, dirty rooms, unlocked door to our room (strange), difficulty with room key, lack of toiletries, and overall cleanliness. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r208230117-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>208230117</t>
+  </si>
+  <si>
+    <t>05/31/2014</t>
+  </si>
+  <si>
+    <t>Very comfortable</t>
+  </si>
+  <si>
+    <t>We were very pleased w our stay. It had been recently redone (except for some repair work in the lobby) and was very nice. The bed was comfortable. The bedding was crisp and fresh. The kitchen had all new appliances, dishes, pots, etc. The refrigerator even had an maker. We loved being close to the Galleria even if it was further away than we first thought. This hotel made traveling w our little dog possible and pleasant. A Pet Smart and a Bark Park nearby made it even better.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r207538293-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207538293</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Very pleased and good value</t>
+  </si>
+  <si>
+    <t>Stayed for an extended time in a 1br suite.  The room was nice and much better appointed than the Extended Stay competition.  The location is excellent, the rooms facing the parkling lot can be bright and hear more noise from the freeway.  Ask for the non-parking lot view for a quieter room.Staff was friendly and very accomdating.The honor system pantry was great for a snack and free washer/dryer was a really nice bonus.I'd recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Vanessa L, Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded May 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2014</t>
+  </si>
+  <si>
+    <t>Stayed for an extended time in a 1br suite.  The room was nice and much better appointed than the Extended Stay competition.  The location is excellent, the rooms facing the parkling lot can be bright and hear more noise from the freeway.  Ask for the non-parking lot view for a quieter room.Staff was friendly and very accomdating.The honor system pantry was great for a snack and free washer/dryer was a really nice bonus.I'd recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r205417040-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205417040</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>THE HIDDEN GEM</t>
+  </si>
+  <si>
+    <t>I stayed at this Hotel from  2 to 12 May 2014 and I found my stay very comfortable and got value for my money. The staff have the key to success in the hospitality business - willingness to help guests. The facilities were clean and modern. the environment was quiet and just a mile to the Galleria. The staff were friendly and color-blind (that is important for me). The Gym was quite good for workout.I will stay at the hotel again and again PROVIDED my 2014 experience remains constant.Otunba Abiodun OlufowobiMoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this Hotel from  2 to 12 May 2014 and I found my stay very comfortable and got value for my money. The staff have the key to success in the hospitality business - willingness to help guests. The facilities were clean and modern. the environment was quiet and just a mile to the Galleria. The staff were friendly and color-blind (that is important for me). The Gym was quite good for workout.I will stay at the hotel again and again PROVIDED my 2014 experience remains constant.Otunba Abiodun OlufowobiMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r196799804-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196799804</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>Suite does not mean hotel room</t>
+  </si>
+  <si>
+    <t>The night we stayed here was during a week in which there were not a lot of vacancies in the Houston area; choices were definitely limited.  But since we have generally had good experience with IHG locations and this was near the TX Medical Center, we made reservations.  The location was okay, near the freeway (i.e. easy to find).  Check-in was slow, as when we walked into the very small corner lobby, there was already a line of 3 in front of us and more people came in behind us.  There were no room vacancies when we checked in so we couldn't change rooms if we wanted to.  The bad news:  we were assigned a 1st floor (ground level) room DIRECTLY across from the "convenience store" room where people went in and out of all night long.  The door would constantly bang and you would hear people talking (excessively and/or loudly, even after hours) in the hallway.  It was a very disruptive night for sleeping.  The good news:  we didn't hear the traffic from the freeway outside.  Also, this type of hotel, at least w/the standard suite we had, does not have standard hotel-like service.  Meaning, you had to supply your own toiletries.  Seriously?  Who doesn't supply the little things like this in a major hotel chain (IHG)?  Thankfully we had already stayed a couple other nights elsewhere and we had kept the leftover toiletries (shampoo, soap, etc.).  We did...The night we stayed here was during a week in which there were not a lot of vacancies in the Houston area; choices were definitely limited.  But since we have generally had good experience with IHG locations and this was near the TX Medical Center, we made reservations.  The location was okay, near the freeway (i.e. easy to find).  Check-in was slow, as when we walked into the very small corner lobby, there was already a line of 3 in front of us and more people came in behind us.  There were no room vacancies when we checked in so we couldn't change rooms if we wanted to.  The bad news:  we were assigned a 1st floor (ground level) room DIRECTLY across from the "convenience store" room where people went in and out of all night long.  The door would constantly bang and you would hear people talking (excessively and/or loudly, even after hours) in the hallway.  It was a very disruptive night for sleeping.  The good news:  we didn't hear the traffic from the freeway outside.  Also, this type of hotel, at least w/the standard suite we had, does not have standard hotel-like service.  Meaning, you had to supply your own toiletries.  Seriously?  Who doesn't supply the little things like this in a major hotel chain (IHG)?  Thankfully we had already stayed a couple other nights elsewhere and we had kept the leftover toiletries (shampoo, soap, etc.).  We did not need to use the kitchen or work/study area, fitness center or patio (it was too cold!).  Unless it is the last open room, I don't plan on staying in a Candlewood Suite location again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded March 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2014</t>
+  </si>
+  <si>
+    <t>The night we stayed here was during a week in which there were not a lot of vacancies in the Houston area; choices were definitely limited.  But since we have generally had good experience with IHG locations and this was near the TX Medical Center, we made reservations.  The location was okay, near the freeway (i.e. easy to find).  Check-in was slow, as when we walked into the very small corner lobby, there was already a line of 3 in front of us and more people came in behind us.  There were no room vacancies when we checked in so we couldn't change rooms if we wanted to.  The bad news:  we were assigned a 1st floor (ground level) room DIRECTLY across from the "convenience store" room where people went in and out of all night long.  The door would constantly bang and you would hear people talking (excessively and/or loudly, even after hours) in the hallway.  It was a very disruptive night for sleeping.  The good news:  we didn't hear the traffic from the freeway outside.  Also, this type of hotel, at least w/the standard suite we had, does not have standard hotel-like service.  Meaning, you had to supply your own toiletries.  Seriously?  Who doesn't supply the little things like this in a major hotel chain (IHG)?  Thankfully we had already stayed a couple other nights elsewhere and we had kept the leftover toiletries (shampoo, soap, etc.).  We did...The night we stayed here was during a week in which there were not a lot of vacancies in the Houston area; choices were definitely limited.  But since we have generally had good experience with IHG locations and this was near the TX Medical Center, we made reservations.  The location was okay, near the freeway (i.e. easy to find).  Check-in was slow, as when we walked into the very small corner lobby, there was already a line of 3 in front of us and more people came in behind us.  There were no room vacancies when we checked in so we couldn't change rooms if we wanted to.  The bad news:  we were assigned a 1st floor (ground level) room DIRECTLY across from the "convenience store" room where people went in and out of all night long.  The door would constantly bang and you would hear people talking (excessively and/or loudly, even after hours) in the hallway.  It was a very disruptive night for sleeping.  The good news:  we didn't hear the traffic from the freeway outside.  Also, this type of hotel, at least w/the standard suite we had, does not have standard hotel-like service.  Meaning, you had to supply your own toiletries.  Seriously?  Who doesn't supply the little things like this in a major hotel chain (IHG)?  Thankfully we had already stayed a couple other nights elsewhere and we had kept the leftover toiletries (shampoo, soap, etc.).  We did not need to use the kitchen or work/study area, fitness center or patio (it was too cold!).  Unless it is the last open room, I don't plan on staying in a Candlewood Suite location again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r184497903-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184497903</t>
+  </si>
+  <si>
+    <t>11/12/2013</t>
+  </si>
+  <si>
+    <t>Recommended but location requires a car</t>
+  </si>
+  <si>
+    <t>While this modern hotel has an arguably good location because it is close to the Galleria and the intersection of two major freeways in the center of Houston (US 59 Southwest Freeway and I-610 Loop), for a first time visitor to Houston, it will likely prove difficult to find, as it is otherwise in the middle of nowhere.  A car is strongly recommended if you are staying here because there is no public transportation, eating or shopping within walking distance of the hotel, although the hotel does reportedly offer shuttle service to the Houston Galleria, a mega-sized high end shopping mall.  Candlewood Suites is IC Hotel/Holiday Inn’s answer to Residence Inn, so the style and layout of the hotel and rooms are similar to a Marriott Residence Inn, and appears geared more to those who intend to stay long term, although it is also fine for short term stays.  Unlike a traditional hotel, daily maid service is limited to towel change and trash removal, with more extensive weekly room cleaning.  You can also exchange for clean towels at the Front Desk as needed.  My room was large and well designed, with a big work space, full kitchen with a counter to sit and eat and a comfortable bed.  The window split duct air conditioning unit was loud, but it worked well.  The staff was very pleasant and both check-in and out were efficient and uneventful.  The free Wi-Fi worked with...While this modern hotel has an arguably good location because it is close to the Galleria and the intersection of two major freeways in the center of Houston (US 59 Southwest Freeway and I-610 Loop), for a first time visitor to Houston, it will likely prove difficult to find, as it is otherwise in the middle of nowhere.  A car is strongly recommended if you are staying here because there is no public transportation, eating or shopping within walking distance of the hotel, although the hotel does reportedly offer shuttle service to the Houston Galleria, a mega-sized high end shopping mall.  Candlewood Suites is IC Hotel/Holiday Inn’s answer to Residence Inn, so the style and layout of the hotel and rooms are similar to a Marriott Residence Inn, and appears geared more to those who intend to stay long term, although it is also fine for short term stays.  Unlike a traditional hotel, daily maid service is limited to towel change and trash removal, with more extensive weekly room cleaning.  You can also exchange for clean towels at the Front Desk as needed.  My room was large and well designed, with a big work space, full kitchen with a counter to sit and eat and a comfortable bed.  The window split duct air conditioning unit was loud, but it worked well.  The staff was very pleasant and both check-in and out were efficient and uneventful.  The free Wi-Fi worked with no problems, but is too slow for video.  The gym was quite modern with a high end multi-station weight machine, an elipitical and bike, but no free weights.  This hotel is fine for a business trip or tourists to Houston if you need or want to be in the Galleria area and have a car (parking is free), but if you do not have a car, there are other hotels closer to and within walking distance to the Galleria which would be better choices If location is not a concern for you, and you have a car, at just $75/night, this hotel is recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded November 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2013</t>
+  </si>
+  <si>
+    <t>While this modern hotel has an arguably good location because it is close to the Galleria and the intersection of two major freeways in the center of Houston (US 59 Southwest Freeway and I-610 Loop), for a first time visitor to Houston, it will likely prove difficult to find, as it is otherwise in the middle of nowhere.  A car is strongly recommended if you are staying here because there is no public transportation, eating or shopping within walking distance of the hotel, although the hotel does reportedly offer shuttle service to the Houston Galleria, a mega-sized high end shopping mall.  Candlewood Suites is IC Hotel/Holiday Inn’s answer to Residence Inn, so the style and layout of the hotel and rooms are similar to a Marriott Residence Inn, and appears geared more to those who intend to stay long term, although it is also fine for short term stays.  Unlike a traditional hotel, daily maid service is limited to towel change and trash removal, with more extensive weekly room cleaning.  You can also exchange for clean towels at the Front Desk as needed.  My room was large and well designed, with a big work space, full kitchen with a counter to sit and eat and a comfortable bed.  The window split duct air conditioning unit was loud, but it worked well.  The staff was very pleasant and both check-in and out were efficient and uneventful.  The free Wi-Fi worked with...While this modern hotel has an arguably good location because it is close to the Galleria and the intersection of two major freeways in the center of Houston (US 59 Southwest Freeway and I-610 Loop), for a first time visitor to Houston, it will likely prove difficult to find, as it is otherwise in the middle of nowhere.  A car is strongly recommended if you are staying here because there is no public transportation, eating or shopping within walking distance of the hotel, although the hotel does reportedly offer shuttle service to the Houston Galleria, a mega-sized high end shopping mall.  Candlewood Suites is IC Hotel/Holiday Inn’s answer to Residence Inn, so the style and layout of the hotel and rooms are similar to a Marriott Residence Inn, and appears geared more to those who intend to stay long term, although it is also fine for short term stays.  Unlike a traditional hotel, daily maid service is limited to towel change and trash removal, with more extensive weekly room cleaning.  You can also exchange for clean towels at the Front Desk as needed.  My room was large and well designed, with a big work space, full kitchen with a counter to sit and eat and a comfortable bed.  The window split duct air conditioning unit was loud, but it worked well.  The staff was very pleasant and both check-in and out were efficient and uneventful.  The free Wi-Fi worked with no problems, but is too slow for video.  The gym was quite modern with a high end multi-station weight machine, an elipitical and bike, but no free weights.  This hotel is fine for a business trip or tourists to Houston if you need or want to be in the Galleria area and have a car (parking is free), but if you do not have a car, there are other hotels closer to and within walking distance to the Galleria which would be better choices If location is not a concern for you, and you have a car, at just $75/night, this hotel is recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r178650420-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178650420</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>Awesome !</t>
+  </si>
+  <si>
+    <t>I cant for the life of me understand why this great hotel doesn't get more reviews.. I arrived on 15 September for a 5 night stay. It was my first Candlewood experience so I didn't know what was in store for me.. I was welcomed by I think the most attentive and personable front desk staffer I have ever met. Mary was so welcoming and friendly and took the time to explain all the features and the quirks of her hotel. Hotels need more staff like Mary. My room felt like brand new, plus the halls had been repainted and carpeted and all the fittings in the room and bathroom renewed. It was great to cook meals, plus have the use of a big fridge/freezer and dishwasher. The laundry had nice new washers and dryers and parking out the front was always plentiful. Based on the positive experience, I decided to book an onward stay at the Candlewood in Vegas. The only negative experience, the front desk person on departure could have been a little bit more pleasant. Well done Candlewood Houston Galleria, I'll be back..MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I cant for the life of me understand why this great hotel doesn't get more reviews.. I arrived on 15 September for a 5 night stay. It was my first Candlewood experience so I didn't know what was in store for me.. I was welcomed by I think the most attentive and personable front desk staffer I have ever met. Mary was so welcoming and friendly and took the time to explain all the features and the quirks of her hotel. Hotels need more staff like Mary. My room felt like brand new, plus the halls had been repainted and carpeted and all the fittings in the room and bathroom renewed. It was great to cook meals, plus have the use of a big fridge/freezer and dishwasher. The laundry had nice new washers and dryers and parking out the front was always plentiful. Based on the positive experience, I decided to book an onward stay at the Candlewood in Vegas. The only negative experience, the front desk person on departure could have been a little bit more pleasant. Well done Candlewood Houston Galleria, I'll be back..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r163301203-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163301203</t>
+  </si>
+  <si>
+    <t>06/07/2013</t>
+  </si>
+  <si>
+    <t>Great staff and stay</t>
+  </si>
+  <si>
+    <t>I stayed here on business for a few meetings.  The front staff greeted me and was very polite and helpful when I checked in.  The rooms were clean and well stocked.  I would stay here again if ever in the area!</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r162586091-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162586091</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>Great Staff, Convenient, Just a few surprises....</t>
+  </si>
+  <si>
+    <t>First I would like to say the staff at the Candlewood Suites is excellent!  Attentive, responsive, helpful, no issues.Great staff.  The hotel is very convenient.  Great location.  Also, everyone who stayed there is very friendly--lots of people who are there for long stays.  The hotel has been remodeled and is well furnished and attractive.  The few things I wish I knew before I booked....you only get maid service if you stay four days.  Wasn't a big deal, but would've been nice to know in advance.  The a/c was borderline, but acceptable.  And the 3rd floor smells like cigarette smoke.  The other floors were fine, so if you book ask for a room on a floor other than the 3rd.  Also --they have a gym, but no pool.  They have a cupboard, but no restaurant.  And the last thing you need to know is the front desk isnot 24 hr.  So if you arrive late, you have to access your key from a lock box.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded June 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2013</t>
+  </si>
+  <si>
+    <t>First I would like to say the staff at the Candlewood Suites is excellent!  Attentive, responsive, helpful, no issues.Great staff.  The hotel is very convenient.  Great location.  Also, everyone who stayed there is very friendly--lots of people who are there for long stays.  The hotel has been remodeled and is well furnished and attractive.  The few things I wish I knew before I booked....you only get maid service if you stay four days.  Wasn't a big deal, but would've been nice to know in advance.  The a/c was borderline, but acceptable.  And the 3rd floor smells like cigarette smoke.  The other floors were fine, so if you book ask for a room on a floor other than the 3rd.  Also --they have a gym, but no pool.  They have a cupboard, but no restaurant.  And the last thing you need to know is the front desk isnot 24 hr.  So if you arrive late, you have to access your key from a lock box.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r157137283-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157137283</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Reasonable price in Galleria (south) area &amp; Better than expected</t>
+  </si>
+  <si>
+    <t>This is my first stay in a Candlewood property.  Quite frankly I wasn't sure what to expect, especially after the highly unusual process for checking in at 11:15pm on a Monday night.  The room is nicer than expected and is truly built as a suite for extended stay guests.  The rooms are a nice size, although not huge.  All include refridgerator, microwave, dishwasher, and cooktop.  It might be described a cute.  Maybe even a little Ikea feel.What you need to know:The Good:  It's in the Galleria area, although very south edge, business area. Coffee isn't bad and the people have generally been nice.  It's clean and appears generally cared for and in good condition.  The water gets hot and has moderate pressure.  The bathroom has more safety features than most.  (grip bars, anti slip).  TV is good and desk space i s awesome.  The space is really comfortable.  Parking and in and out is super simple.The bad, although better said as areas to be informed:  they apparently permit animals as I was awakened by a loud dog next door at 7am.  The bathroom has everything you need, but no countertop areas for items.  The bed is just ok.  Nothing is high end, but hey, this isn't a 4 or 5 star place. The air unit is a little loud.  If you're a light sleeper, this is gonna make you nuts.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Marilda D, General Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded April 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2013</t>
+  </si>
+  <si>
+    <t>This is my first stay in a Candlewood property.  Quite frankly I wasn't sure what to expect, especially after the highly unusual process for checking in at 11:15pm on a Monday night.  The room is nicer than expected and is truly built as a suite for extended stay guests.  The rooms are a nice size, although not huge.  All include refridgerator, microwave, dishwasher, and cooktop.  It might be described a cute.  Maybe even a little Ikea feel.What you need to know:The Good:  It's in the Galleria area, although very south edge, business area. Coffee isn't bad and the people have generally been nice.  It's clean and appears generally cared for and in good condition.  The water gets hot and has moderate pressure.  The bathroom has more safety features than most.  (grip bars, anti slip).  TV is good and desk space i s awesome.  The space is really comfortable.  Parking and in and out is super simple.The bad, although better said as areas to be informed:  they apparently permit animals as I was awakened by a loud dog next door at 7am.  The bathroom has everything you need, but no countertop areas for items.  The bed is just ok.  Nothing is high end, but hey, this isn't a 4 or 5 star place. The air unit is a little loud.  If you're a light sleeper, this is gonna make you nuts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r152565997-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152565997</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Conveniently located hotel with recently refurbished rooms. Excellent value for money.</t>
+  </si>
+  <si>
+    <t>I stayed in the Candlewood Galleria during february on business having stayed in this hotel for the last 4 years. Reasonably priced rooms which for the 1 bedroom suite I stayed in was fully refurbished to include new furniture, bathroom and flat panel tvs. Very clean and comfortable indeed. Add in the honesty based Candlewood cupboard (drinks, snacks &amp; microwave meals) and a decent gym. Front desk staff were very pleasant and helpful. Plenty car parking. Located where the 59 freeway meets the 610 south loop so very easy to get places, including the Galleria mall which is 5 mins away by car.My only complaint is that the wifi (which is free) is simply too slow, so for example cannot support good quality skype video calls. This needs to be addressed as in my opinion is the only blemish on an otherwise excellent hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Marilda D, General Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded March 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2013</t>
+  </si>
+  <si>
+    <t>I stayed in the Candlewood Galleria during february on business having stayed in this hotel for the last 4 years. Reasonably priced rooms which for the 1 bedroom suite I stayed in was fully refurbished to include new furniture, bathroom and flat panel tvs. Very clean and comfortable indeed. Add in the honesty based Candlewood cupboard (drinks, snacks &amp; microwave meals) and a decent gym. Front desk staff were very pleasant and helpful. Plenty car parking. Located where the 59 freeway meets the 610 south loop so very easy to get places, including the Galleria mall which is 5 mins away by car.My only complaint is that the wifi (which is free) is simply too slow, so for example cannot support good quality skype video calls. This needs to be addressed as in my opinion is the only blemish on an otherwise excellent hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r150310741-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150310741</t>
+  </si>
+  <si>
+    <t>01/22/2013</t>
+  </si>
+  <si>
+    <t>Candlewood Suites is a strange operation anyway</t>
+  </si>
+  <si>
+    <t>If you arrive at Candlewood Suites after 11:00pm, you are expected to walk into a very small lobby, look on the wall that has lock boxes on it. Look up your last name and it corresponds with the lock box that has your room key in it. Kinda strange but doable. Then you find out that maid service only happens once a week. Yep. That's it. Once a week. On Fridays. You are allowed to swap out your dirty linen and towels for fresh ones but you must strip the bed yourself and carry your dirty linen and towels down to the office. Then the lady behind the desk will take your dirty stuff and throw it into the back room. Then she goes back and presumably collects up clean versions of the items that were just turned in. 
+This place does not have a pool but it does have a nice gym. The "suite" part of the name is a bit misleading. It is a small room with a full kitchen with your own ice maker. Now that's cool. It also has a nice 42" HD TV and a lounge chair that is much too big for the room.
+One thing I did like was that I was given a "goody bag" upon checking in. It was given to me because I am a member of Priority Club. It had a toothpaste sampler, bag of cookies, bag of peanuts,...If you arrive at Candlewood Suites after 11:00pm, you are expected to walk into a very small lobby, look on the wall that has lock boxes on it. Look up your last name and it corresponds with the lock box that has your room key in it. Kinda strange but doable. Then you find out that maid service only happens once a week. Yep. That's it. Once a week. On Fridays. You are allowed to swap out your dirty linen and towels for fresh ones but you must strip the bed yourself and carry your dirty linen and towels down to the office. Then the lady behind the desk will take your dirty stuff and throw it into the back room. Then she goes back and presumably collects up clean versions of the items that were just turned in. This place does not have a pool but it does have a nice gym. The "suite" part of the name is a bit misleading. It is a small room with a full kitchen with your own ice maker. Now that's cool. It also has a nice 42" HD TV and a lounge chair that is much too big for the room.One thing I did like was that I was given a "goody bag" upon checking in. It was given to me because I am a member of Priority Club. It had a toothpaste sampler, bag of cookies, bag of peanuts, a nasal thing you use to stop snoring and I think that was it but still pretty cool.My main complaints are that the toilets are too low and the water too high. Your hand gets wet when you don't want it to be (if you know what I mean). Another bad thing is the location. There is nothing around it. Ok, there is a Subway about a block away. That's about it. There is a Home Depot directly across the street.Another thing that bugged me was when ever I had to call the office (wakeup call, etc) it took a long time for them to answer the phone. I mean each and every time I called I had to wait a long time for them to pick up. Really busy maybe?My last complaint is the water pressure. This seems to be a problem at a lot of the standard fare hotels. It just pisses me off because it takes twice as long to take a shower. No bueno.Other then that, the bed is not bad, very nice kitchen, and pretty quiet. Close to freeway, free parking. That's about it.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded February 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2013</t>
+  </si>
+  <si>
+    <t>If you arrive at Candlewood Suites after 11:00pm, you are expected to walk into a very small lobby, look on the wall that has lock boxes on it. Look up your last name and it corresponds with the lock box that has your room key in it. Kinda strange but doable. Then you find out that maid service only happens once a week. Yep. That's it. Once a week. On Fridays. You are allowed to swap out your dirty linen and towels for fresh ones but you must strip the bed yourself and carry your dirty linen and towels down to the office. Then the lady behind the desk will take your dirty stuff and throw it into the back room. Then she goes back and presumably collects up clean versions of the items that were just turned in. 
+This place does not have a pool but it does have a nice gym. The "suite" part of the name is a bit misleading. It is a small room with a full kitchen with your own ice maker. Now that's cool. It also has a nice 42" HD TV and a lounge chair that is much too big for the room.
+One thing I did like was that I was given a "goody bag" upon checking in. It was given to me because I am a member of Priority Club. It had a toothpaste sampler, bag of cookies, bag of peanuts,...If you arrive at Candlewood Suites after 11:00pm, you are expected to walk into a very small lobby, look on the wall that has lock boxes on it. Look up your last name and it corresponds with the lock box that has your room key in it. Kinda strange but doable. Then you find out that maid service only happens once a week. Yep. That's it. Once a week. On Fridays. You are allowed to swap out your dirty linen and towels for fresh ones but you must strip the bed yourself and carry your dirty linen and towels down to the office. Then the lady behind the desk will take your dirty stuff and throw it into the back room. Then she goes back and presumably collects up clean versions of the items that were just turned in. This place does not have a pool but it does have a nice gym. The "suite" part of the name is a bit misleading. It is a small room with a full kitchen with your own ice maker. Now that's cool. It also has a nice 42" HD TV and a lounge chair that is much too big for the room.One thing I did like was that I was given a "goody bag" upon checking in. It was given to me because I am a member of Priority Club. It had a toothpaste sampler, bag of cookies, bag of peanuts, a nasal thing you use to stop snoring and I think that was it but still pretty cool.My main complaints are that the toilets are too low and the water too high. Your hand gets wet when you don't want it to be (if you know what I mean). Another bad thing is the location. There is nothing around it. Ok, there is a Subway about a block away. That's about it. There is a Home Depot directly across the street.Another thing that bugged me was when ever I had to call the office (wakeup call, etc) it took a long time for them to answer the phone. I mean each and every time I called I had to wait a long time for them to pick up. Really busy maybe?My last complaint is the water pressure. This seems to be a problem at a lot of the standard fare hotels. It just pisses me off because it takes twice as long to take a shower. No bueno.Other then that, the bed is not bad, very nice kitchen, and pretty quiet. Close to freeway, free parking. That's about it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r145460431-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145460431</t>
+  </si>
+  <si>
+    <t>11/15/2012</t>
+  </si>
+  <si>
+    <t>Best Value In The Galleria Area</t>
+  </si>
+  <si>
+    <t>For anyone that has had to stay in the Galleria area, you will know you are hard pressed to find any hotel for under $185/night and that is what makes the Candlewood Suites such a great value.I had never stayed in a CS before and was pleasantly surprised.  My room was very clean and modern.  The bedroom/bath were spacious, large work area, cute little kitchen.  Downsides were the towels (very rough) and the newish carpet was coming up in places and needed some work and the appliances in the kitchen were old, which was a shame because they seemed to have remodeled everything else.  It was also very quiet, which was greatUnlike some other chain hotels in this price range, they do not provide a free breakfast. That was ok by me, I just bought a yougurt and oatmeal cup from their little shop, total cost $1.75 There was no fruit in the shop, which was unfortunate but all the food items were very reasonably priced.I did not use the gym, but it looked ok.  The other issue is you are far enough from the galleria you will not be able to walk to any restaurants for dinner, but it an easy car ride awayMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>For anyone that has had to stay in the Galleria area, you will know you are hard pressed to find any hotel for under $185/night and that is what makes the Candlewood Suites such a great value.I had never stayed in a CS before and was pleasantly surprised.  My room was very clean and modern.  The bedroom/bath were spacious, large work area, cute little kitchen.  Downsides were the towels (very rough) and the newish carpet was coming up in places and needed some work and the appliances in the kitchen were old, which was a shame because they seemed to have remodeled everything else.  It was also very quiet, which was greatUnlike some other chain hotels in this price range, they do not provide a free breakfast. That was ok by me, I just bought a yougurt and oatmeal cup from their little shop, total cost $1.75 There was no fruit in the shop, which was unfortunate but all the food items were very reasonably priced.I did not use the gym, but it looked ok.  The other issue is you are far enough from the galleria you will not be able to walk to any restaurants for dinner, but it an easy car ride awayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r139727559-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139727559</t>
+  </si>
+  <si>
+    <t>09/08/2012</t>
+  </si>
+  <si>
+    <t>Cheap, Central, WIFI not that great</t>
+  </si>
+  <si>
+    <t>This long-stayed hotel is probably the best value you get if you stay at the galleria area and it is member of the Holiday-Inn club.Staff is great, very helpful. A 24h store with an honorary system is available to you (no beer though)The WiFi is just horrible - you have to login each and every time you unlock your phone and it is just too slow - just use your 3g.Great deal if you're on a budget - almost 50% off the main hotels around this area.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r137314937-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137314937</t>
+  </si>
+  <si>
+    <t>08/15/2012</t>
+  </si>
+  <si>
+    <t>Excellent value</t>
+  </si>
+  <si>
+    <t>I stay in hotels/extended stays about 200.220 days a year.  The Candlewood Suites Houston by the Galleria is perfect for extended stays.  The rooms are modern.  They updated the televisions to 48inches during my stay (eight weeks long).The best part was the staff: incredibly friendly and personable.  It's hard to find as genuine of a staff as the Candlewood Houston.For the rate I received for a eight week stay, I have no room to mention cons/disappointments.  Great value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r129861900-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129861900</t>
+  </si>
+  <si>
+    <t>05/13/2012</t>
+  </si>
+  <si>
+    <t>In Desperate Need of Many Things</t>
+  </si>
+  <si>
+    <t>I stayed here for business for about 2 weeks in May.  Pros:- Cheap- Plentiful Laundry Machines- Near my officeCons:- The hotel has renovations going on 7 days per week, staying over a weekend in painful- The hotel is dirty and ill kept (I'm guessing the reason for th first bullet)- The TV in the bedroom is a joke- I was not asked for ID when my room key did not work (make sure your valuables are in the safe, wait there is no safe)- The towels feel like 80 grit sandpaper- cleaning is once per week (normal for candlewood)Maybe this place will be worth a try again when the renovations are completed but in the mean time avoid this place like the plague, its a dump in every sense of the word.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded June 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for business for about 2 weeks in May.  Pros:- Cheap- Plentiful Laundry Machines- Near my officeCons:- The hotel has renovations going on 7 days per week, staying over a weekend in painful- The hotel is dirty and ill kept (I'm guessing the reason for th first bullet)- The TV in the bedroom is a joke- I was not asked for ID when my room key did not work (make sure your valuables are in the safe, wait there is no safe)- The towels feel like 80 grit sandpaper- cleaning is once per week (normal for candlewood)Maybe this place will be worth a try again when the renovations are completed but in the mean time avoid this place like the plague, its a dump in every sense of the word.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r125249797-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125249797</t>
+  </si>
+  <si>
+    <t>02/26/2012</t>
+  </si>
+  <si>
+    <t>Stolen property INSIDE of room</t>
+  </si>
+  <si>
+    <t>I just read the review about someone's car getting broken into at this location.....I guess the thieves have now moved inside.  My 74-year old mom stayed at this location for over 2 months because she had a fire in her house.  While rushing out of her home during the fire, she packed all of her valuables (watches, rings, necklaces, etc.) in her suitcase.  She tucked the valuables away and hid them in the bottom of her suitcase in the closet of her hotel room(i.e. the room doesn't have a safe).  When she moved back to her house and started unpacking, she realized that someone had gone through her suitcase and stolen all of her valuables.  We immediately called the hotel and they said a manager wasn't there and they couldn't call one.  After calling the police and filing a police report, I spoke to the manager and general manager and asked if they had access to the records of who entered the room.   They said they would pull the activity records to see if anything looked out of the ordinary.  For the record, I didn't believe this was going to happen because neither the manager or general manager seemed very surprised or concerned about our loss.  I never heard back from either, but we did get a generic form letter from their insurance company saying there is nothing they can do.  I am disappointed that a hotel chain would treat...I just read the review about someone's car getting broken into at this location.....I guess the thieves have now moved inside.  My 74-year old mom stayed at this location for over 2 months because she had a fire in her house.  While rushing out of her home during the fire, she packed all of her valuables (watches, rings, necklaces, etc.) in her suitcase.  She tucked the valuables away and hid them in the bottom of her suitcase in the closet of her hotel room(i.e. the room doesn't have a safe).  When she moved back to her house and started unpacking, she realized that someone had gone through her suitcase and stolen all of her valuables.  We immediately called the hotel and they said a manager wasn't there and they couldn't call one.  After calling the police and filing a police report, I spoke to the manager and general manager and asked if they had access to the records of who entered the room.   They said they would pull the activity records to see if anything looked out of the ordinary.  For the record, I didn't believe this was going to happen because neither the manager or general manager seemed very surprised or concerned about our loss.  I never heard back from either, but we did get a generic form letter from their insurance company saying there is nothing they can do.  I am disappointed that a hotel chain would treat a guest like this, especially a guest who was staying there after a tragedy, and lost life-long valuables and memories.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I just read the review about someone's car getting broken into at this location.....I guess the thieves have now moved inside.  My 74-year old mom stayed at this location for over 2 months because she had a fire in her house.  While rushing out of her home during the fire, she packed all of her valuables (watches, rings, necklaces, etc.) in her suitcase.  She tucked the valuables away and hid them in the bottom of her suitcase in the closet of her hotel room(i.e. the room doesn't have a safe).  When she moved back to her house and started unpacking, she realized that someone had gone through her suitcase and stolen all of her valuables.  We immediately called the hotel and they said a manager wasn't there and they couldn't call one.  After calling the police and filing a police report, I spoke to the manager and general manager and asked if they had access to the records of who entered the room.   They said they would pull the activity records to see if anything looked out of the ordinary.  For the record, I didn't believe this was going to happen because neither the manager or general manager seemed very surprised or concerned about our loss.  I never heard back from either, but we did get a generic form letter from their insurance company saying there is nothing they can do.  I am disappointed that a hotel chain would treat...I just read the review about someone's car getting broken into at this location.....I guess the thieves have now moved inside.  My 74-year old mom stayed at this location for over 2 months because she had a fire in her house.  While rushing out of her home during the fire, she packed all of her valuables (watches, rings, necklaces, etc.) in her suitcase.  She tucked the valuables away and hid them in the bottom of her suitcase in the closet of her hotel room(i.e. the room doesn't have a safe).  When she moved back to her house and started unpacking, she realized that someone had gone through her suitcase and stolen all of her valuables.  We immediately called the hotel and they said a manager wasn't there and they couldn't call one.  After calling the police and filing a police report, I spoke to the manager and general manager and asked if they had access to the records of who entered the room.   They said they would pull the activity records to see if anything looked out of the ordinary.  For the record, I didn't believe this was going to happen because neither the manager or general manager seemed very surprised or concerned about our loss.  I never heard back from either, but we did get a generic form letter from their insurance company saying there is nothing they can do.  I am disappointed that a hotel chain would treat a guest like this, especially a guest who was staying there after a tragedy, and lost life-long valuables and memories.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r120213545-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120213545</t>
+  </si>
+  <si>
+    <t>11/05/2011</t>
+  </si>
+  <si>
+    <t>Not quite Candlewood Suites</t>
+  </si>
+  <si>
+    <t>Candlewood Suites by name but not quite in reality, the Houston branch is missing the all night reception and a BUSINESS centre. Travelling on business I have stayed at a few Candlewood Suites and found them really well equipped with an onsite shop, an onsite self service laundry, an on site gym and a pool so had had to ask what happened here in Houston. It was as if the owners forgot the important stuff but remembered the rest. All credit must go to the staff as they were most helpful in helping me check in for my flight.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r117849388-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117849388</t>
+  </si>
+  <si>
+    <t>09/08/2011</t>
+  </si>
+  <si>
+    <t>OK, don't think I would stay again</t>
+  </si>
+  <si>
+    <t>Has a fridge, stove &amp; microwave so thats a plus, just not impressed with the room. Had peeling paint in shower, TV to small &amp; bed not the most comfortable.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r117047909-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117047909</t>
+  </si>
+  <si>
+    <t>08/21/2011</t>
+  </si>
+  <si>
+    <t>Average but very helpful staff. Location quite convenient</t>
+  </si>
+  <si>
+    <t>Unfortunately the first room we got was quite smelly, and we probably found the reason for that on the second day when we tried to use the dishwasher and noticed water leaking.We were moved to another room which smelled much better.Rooms in this hotel are equipped with a small kitchenette featuring a hot plate, fridge, microwave and dishwasher, so you can throw together a small dinner without having to go out.We were very much impressed by the helpfulness of the staff when we realized that we left the car lights on over night and had drained the battery. They had a starter cable and a member of the staff jump started our car.Even though the interior of the hotel is average, we'd still come back if the price is right. The location of this hotel is quite good as long as you have a car.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>Unfortunately the first room we got was quite smelly, and we probably found the reason for that on the second day when we tried to use the dishwasher and noticed water leaking.We were moved to another room which smelled much better.Rooms in this hotel are equipped with a small kitchenette featuring a hot plate, fridge, microwave and dishwasher, so you can throw together a small dinner without having to go out.We were very much impressed by the helpfulness of the staff when we realized that we left the car lights on over night and had drained the battery. They had a starter cable and a member of the staff jump started our car.Even though the interior of the hotel is average, we'd still come back if the price is right. The location of this hotel is quite good as long as you have a car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r115603845-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115603845</t>
+  </si>
+  <si>
+    <t>07/21/2011</t>
+  </si>
+  <si>
+    <t>Had a pleasant stay...</t>
+  </si>
+  <si>
+    <t>I stayed at this property for 2 weeks at the beginning of July. It was much cleaner than I had expected for the price (I paid $69 +tax per night). The staff at the front desk are friendly; but the security does seem a little lax because anyone could walk in and out without being questioned. However, the location of the hotel is fairly safe so no bother. It is situated close to the Galleria (5 mins by car), but walking there is not an option because 1) the weather is hot hot hot!, and 2) Houston streets are not pedestrian friendly, the notion of walking anywhere seems strange to Houstonians.It is true the maid service only comes once a week, but every adult should be able to make their own bed for a week at least. There is a good stock of towels in the bathroom. The rooms are fairly spacious, and the kitchen area is a godsend even though the hotel only provides one saucepan (which is really a small stock pot).All in all, it was well worth the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I stayed at this property for 2 weeks at the beginning of July. It was much cleaner than I had expected for the price (I paid $69 +tax per night). The staff at the front desk are friendly; but the security does seem a little lax because anyone could walk in and out without being questioned. However, the location of the hotel is fairly safe so no bother. It is situated close to the Galleria (5 mins by car), but walking there is not an option because 1) the weather is hot hot hot!, and 2) Houston streets are not pedestrian friendly, the notion of walking anywhere seems strange to Houstonians.It is true the maid service only comes once a week, but every adult should be able to make their own bed for a week at least. There is a good stock of towels in the bathroom. The rooms are fairly spacious, and the kitchen area is a godsend even though the hotel only provides one saucepan (which is really a small stock pot).All in all, it was well worth the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r115420552-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115420552</t>
+  </si>
+  <si>
+    <t>07/16/2011</t>
+  </si>
+  <si>
+    <t>Loved it and we'll be back...</t>
+  </si>
+  <si>
+    <t>I always enjoy the friendly staff and clean rooms when I stay at this hotel.  The location is convenient to many restaurants and shopping. Staff is also knowledgable with area attractions and offer good suggestions.   Whether business or personal, I will return.  The rooms are clean and the prices are reasonable for any budget.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r114964382-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114964382</t>
+  </si>
+  <si>
+    <t>07/02/2011</t>
+  </si>
+  <si>
+    <t>The best value near the Galleria</t>
+  </si>
+  <si>
+    <t>I had a one night stay here because I had business in the Galleria area.  The Candlewood is the best value around, for under $100.  Everything is very basic, but there are complimentary DVDs at the front desk, and I got in late and they even had a packet of popcorn for the microwave in the room.  I have stayed here before and will do so again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r114410908-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114410908</t>
+  </si>
+  <si>
+    <t>06/19/2011</t>
+  </si>
+  <si>
+    <t>Nice Place - Comfortable Room</t>
+  </si>
+  <si>
+    <t>I stayed for one night in this hotel and was satisfied: price is good and the room was large and the bed comfortable. For going to the Galeria Mall you need a car. On site convenient store very practical. I would stay again.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r113557657-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>113557657</t>
+  </si>
+  <si>
+    <t>06/14/2011</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>The hotel was clean and the staff was very helpful. The rooms are comfortable and quite. A good buy when compared to other hotels in the area. Hotel is just down the road from some good restaurants. Nothing fancy, but I had a great stay and will stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r68972704-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>68972704</t>
+  </si>
+  <si>
+    <t>06/28/2010</t>
+  </si>
+  <si>
+    <t>Pretty good value.</t>
+  </si>
+  <si>
+    <t>There were limited reviews prior to my booking, but decided to take the chance due to the en-suite kitchen. We were traveling with our 3-1/2 yr old daughter so we needed to be able to prepare food for her, and ourselves. The first room we got smelled of paint, and the carpet under and around the air conditioner was damp. We got there about 7pm, and promptly went and told the front desk about the room, and they moved us to another room a few minutes later. The remainder of the stay was fine. The area and hotel was quiet. There wasn't a pool, but we weren't getting in a pool at 60°F in Houston! The room was good enough for our needs, but the one king sized bed was almost just enough for the three of us. The complimentary internet access was good too. Overall, our first impression was not good, but after we got our room changed, it was quite acceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>candlewoodgalleria, Director of Sales at Candlewood Suites Houston by the Galleria, responded to this reviewResponded June 9, 2011</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2011</t>
+  </si>
+  <si>
+    <t>There were limited reviews prior to my booking, but decided to take the chance due to the en-suite kitchen. We were traveling with our 3-1/2 yr old daughter so we needed to be able to prepare food for her, and ourselves. The first room we got smelled of paint, and the carpet under and around the air conditioner was damp. We got there about 7pm, and promptly went and told the front desk about the room, and they moved us to another room a few minutes later. The remainder of the stay was fine. The area and hotel was quiet. There wasn't a pool, but we weren't getting in a pool at 60°F in Houston! The room was good enough for our needs, but the one king sized bed was almost just enough for the three of us. The complimentary internet access was good too. Overall, our first impression was not good, but after we got our room changed, it was quite acceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r50699412-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>50699412</t>
+  </si>
+  <si>
+    <t>12/05/2009</t>
+  </si>
+  <si>
+    <t>Escape from Candlewood Suite</t>
+  </si>
+  <si>
+    <t>Do not stay here unless you absolutely have to. This place is a dump. There is no service after 6 PM. There is actually no service at all. If you need a place to sleep, the beds are clean. The rooms smell, the place is shabby, but you get what you pay for.We stayed there for 10 days. Our commode overflowed and the dishwasher leaked. We reported it at 4 PM. When we got back to the room at 10 pm there was almost an inch of water in the bathroom and there was water all over the floor under the dishwasher. NO ONE ever came to look at the room. I went back to the front desk and was told that the evening clerk forgot to tell the maint man.....They did give us another room. Then comped the remaining nights. This place needs a lot of upgrades and better staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>candlewoodgalleria, Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded April 26, 2010</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2010</t>
+  </si>
+  <si>
+    <t>Do not stay here unless you absolutely have to. This place is a dump. There is no service after 6 PM. There is actually no service at all. If you need a place to sleep, the beds are clean. The rooms smell, the place is shabby, but you get what you pay for.We stayed there for 10 days. Our commode overflowed and the dishwasher leaked. We reported it at 4 PM. When we got back to the room at 10 pm there was almost an inch of water in the bathroom and there was water all over the floor under the dishwasher. NO ONE ever came to look at the room. I went back to the front desk and was told that the evening clerk forgot to tell the maint man.....They did give us another room. Then comped the remaining nights. This place needs a lot of upgrades and better staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r49708087-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>49708087</t>
+  </si>
+  <si>
+    <t>11/20/2009</t>
+  </si>
+  <si>
+    <t>Was not bad at all!</t>
+  </si>
+  <si>
+    <t>After reading previous reviews, I was concerned before i check-in. But it was all good.You need the room key to enter the hotel after 10pm, which is good for security and i found no issue at the parking lot.The staff are friendly and explain the hotel info before i go to my room, even show me how to operate the free washing machine, which was GREAT to me. i just can't let myself spend the money in the 5 star hotel for expensive laundry.The room is big and with kitchen. I found the mircowave is very useful to cook some food at night. The only 2 issues i have with the room is the smell (think is from the air-con) and the noise of the air-con.The location is not bad too, close to galleria and you can easily get to other places.With the price, this is a very nice hotel to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>After reading previous reviews, I was concerned before i check-in. But it was all good.You need the room key to enter the hotel after 10pm, which is good for security and i found no issue at the parking lot.The staff are friendly and explain the hotel info before i go to my room, even show me how to operate the free washing machine, which was GREAT to me. i just can't let myself spend the money in the 5 star hotel for expensive laundry.The room is big and with kitchen. I found the mircowave is very useful to cook some food at night. The only 2 issues i have with the room is the smell (think is from the air-con) and the noise of the air-con.The location is not bad too, close to galleria and you can easily get to other places.With the price, this is a very nice hotel to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r26995266-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>26995266</t>
+  </si>
+  <si>
+    <t>03/28/2009</t>
+  </si>
+  <si>
+    <t>Low Price for Low Service and So-so Amenities</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel for about 50 nights in the period December 2008 to March 2009.Postitives:1. Low price for the area2. Large rooms3. Kitchenette in all rooms4. Free parkingNegatives:1.  No one at front desk from 11pm to 7am2.  No restaurant, bar, or swimming pool3.  Sometimes when I have been on the lower two floors the noise from people above me was very loud, floors not very soundproof4.  Twice in the last two months I have had bath room faucets that leak at the base when I am using them5.  Rooms are only serviced once a week6.  Road noise from nearby highways means you need to generally keep your windows closed7.  One room I was given had no hot water in shower8.  One room I was given had a damaged closet door9.  One room I was given the VCR/DVD did not work10. Equipment in the work out room bottom of the line11. Work out room closed from 10pm to 6am12.  Selection of DVDs and VCR tapes for free rental is sparseMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel for about 50 nights in the period December 2008 to March 2009.Postitives:1. Low price for the area2. Large rooms3. Kitchenette in all rooms4. Free parkingNegatives:1.  No one at front desk from 11pm to 7am2.  No restaurant, bar, or swimming pool3.  Sometimes when I have been on the lower two floors the noise from people above me was very loud, floors not very soundproof4.  Twice in the last two months I have had bath room faucets that leak at the base when I am using them5.  Rooms are only serviced once a week6.  Road noise from nearby highways means you need to generally keep your windows closed7.  One room I was given had no hot water in shower8.  One room I was given had a damaged closet door9.  One room I was given the VCR/DVD did not work10. Equipment in the work out room bottom of the line11. Work out room closed from 10pm to 6am12.  Selection of DVDs and VCR tapes for free rental is sparseMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r21821269-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>21821269</t>
+  </si>
+  <si>
+    <t>11/13/2008</t>
+  </si>
+  <si>
+    <t>Won't stay there again!</t>
+  </si>
+  <si>
+    <t>I had stayed at this hotel during a previous business trip and had a decent stay so I booked it again. However this stay was nothing like the first. First it took awhile to check in because there were printer problems. Then when I got in the room I was overwhelmed by this minty fragrance. It was way too strong and a scent that reminded me of taking too many Peppermint Schnapps shots. The rooms were not very clean especially the floors. I was not provided with any washclothes, just bath towels and hand towels. I will not be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>candlewoodgalleria, Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded June 16, 2011</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2011</t>
+  </si>
+  <si>
+    <t>I had stayed at this hotel during a previous business trip and had a decent stay so I booked it again. However this stay was nothing like the first. First it took awhile to check in because there were printer problems. Then when I got in the room I was overwhelmed by this minty fragrance. It was way too strong and a scent that reminded me of taking too many Peppermint Schnapps shots. The rooms were not very clean especially the floors. I was not provided with any washclothes, just bath towels and hand towels. I will not be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r17085810-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>17085810</t>
+  </si>
+  <si>
+    <t>06/20/2008</t>
+  </si>
+  <si>
+    <t>Nightmare Of A Hotel!!!!</t>
+  </si>
+  <si>
+    <t>I am in hotels at least 10 days a month.  The only reason I liked staying at this hotel is because of the C/D player, DVD player and kitchen area. But I always have a problem with this hotel.  It is never a smooth reservation or accomodation. Many, many times I have booked a 2 room suite online but upon arrival at the hotel, no suites are available and the staff makes no apology for the situation.  The water pressure is always low,  the bathroom is dark and dingy.  The clock doesn't work, the C/D player not in the room. It's always something!!!!Although the location is convenient, I HATE THIS PLACE. As long as this manager remains, I WILL NEVER STAY HERE!!!!!IMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>I am in hotels at least 10 days a month.  The only reason I liked staying at this hotel is because of the C/D player, DVD player and kitchen area. But I always have a problem with this hotel.  It is never a smooth reservation or accomodation. Many, many times I have booked a 2 room suite online but upon arrival at the hotel, no suites are available and the staff makes no apology for the situation.  The water pressure is always low,  the bathroom is dark and dingy.  The clock doesn't work, the C/D player not in the room. It's always something!!!!Although the location is convenient, I HATE THIS PLACE. As long as this manager remains, I WILL NEVER STAY HERE!!!!!IMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r14000273-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>14000273</t>
+  </si>
+  <si>
+    <t>03/02/2008</t>
+  </si>
+  <si>
+    <t>Hated the Service; needs refurbishing</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites chain has good beds and decent value, but terrible service at this hotel made the stay terrible. I had  a toilet in the first room that didn't work and a shower that didn't work right in the 2nd room and had stuff thrown out from the first room. The personnel were unfriendly and unhelpful since managers only work M-F and not at all on weekends. The maintenance seems lax at this hotel and the rooms need more refurbishing..new cabinets for example, though the carpeting looked new.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>debrabjohnson, Director of Sales at Candlewood Suites Houston by the Galleria, responded to this reviewResponded May 8, 2008</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2008</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites chain has good beds and decent value, but terrible service at this hotel made the stay terrible. I had  a toilet in the first room that didn't work and a shower that didn't work right in the 2nd room and had stuff thrown out from the first room. The personnel were unfriendly and unhelpful since managers only work M-F and not at all on weekends. The maintenance seems lax at this hotel and the rooms need more refurbishing..new cabinets for example, though the carpeting looked new.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r13244614-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>13244614</t>
+  </si>
+  <si>
+    <t>02/03/2008</t>
+  </si>
+  <si>
+    <t>Good for business travelers that don't mind a drive for ammenities</t>
+  </si>
+  <si>
+    <t>Usually stay at the Candlewood when in Houston for busines and have always had a nice stay there.Staff are friendly upon check in and more than willing to give advice on restaurants, directions etc... nearby.The location can be very confusing to find first time round and you may think you've driven into some retail park. So be warned... and trust your directions!Galleria is close by and relatively easy to get to and you'll also pass by numerous restaurants and sports bars for places to eat. There are no places to eat or shop at within walking distance.Room was clean and comfortable (bed was great) with an open plan set up with the kitchen area for those not familiar with Candlewood rooms. This may cause issues with light sleepers from the fridge/freezer noise when it cuts in and out.I'm always happy staying here every time I return to Houston for meetings at that part of town for the price paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>Usually stay at the Candlewood when in Houston for busines and have always had a nice stay there.Staff are friendly upon check in and more than willing to give advice on restaurants, directions etc... nearby.The location can be very confusing to find first time round and you may think you've driven into some retail park. So be warned... and trust your directions!Galleria is close by and relatively easy to get to and you'll also pass by numerous restaurants and sports bars for places to eat. There are no places to eat or shop at within walking distance.Room was clean and comfortable (bed was great) with an open plan set up with the kitchen area for those not familiar with Candlewood rooms. This may cause issues with light sleepers from the fridge/freezer noise when it cuts in and out.I'm always happy staying here every time I return to Houston for meetings at that part of town for the price paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r7552748-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>7552748</t>
+  </si>
+  <si>
+    <t>05/05/2007</t>
+  </si>
+  <si>
+    <t>Clean, Inexpensive Accomodations</t>
+  </si>
+  <si>
+    <t>This was our first experience with Candlewood Suites.  The washer/dryer Cupboard area was a welcome ammenity for us after a four day road trip.  I am sorry to hear a previous tripster had a very bad experience, but we had quite the opposite.  We washed/dryed clothes without incident and I was quite amazed at the whole "honor system" setup in the Cupboard area.  Our room was spacious, clean with full kitchen setup.  Restaurant leftovers went into the fridge and we made full use of the coffee pot and microwave appliances.  A real bargin for the money!</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1813,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1845,3798 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>125</v>
+      </c>
+      <c r="X12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>142</v>
+      </c>
+      <c r="X14" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>151</v>
+      </c>
+      <c r="X15" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>165</v>
+      </c>
+      <c r="O17" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>166</v>
+      </c>
+      <c r="X17" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>175</v>
+      </c>
+      <c r="X18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>166</v>
+      </c>
+      <c r="X19" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>189</v>
+      </c>
+      <c r="O20" t="s">
+        <v>190</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>191</v>
+      </c>
+      <c r="X20" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>189</v>
+      </c>
+      <c r="O21" t="s">
+        <v>190</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>198</v>
+      </c>
+      <c r="X21" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>189</v>
+      </c>
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>211</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" t="s">
+        <v>214</v>
+      </c>
+      <c r="K24" t="s">
+        <v>215</v>
+      </c>
+      <c r="L24" t="s">
+        <v>216</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>223</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" t="s">
+        <v>234</v>
+      </c>
+      <c r="L27" t="s">
+        <v>235</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>236</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>237</v>
+      </c>
+      <c r="X27" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>230</v>
+      </c>
+      <c r="O28" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>237</v>
+      </c>
+      <c r="X28" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" t="s">
+        <v>250</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>251</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>252</v>
+      </c>
+      <c r="X29" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>256</v>
+      </c>
+      <c r="J30" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" t="s">
+        <v>259</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>260</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>261</v>
+      </c>
+      <c r="X30" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>265</v>
+      </c>
+      <c r="J31" t="s">
+        <v>266</v>
+      </c>
+      <c r="K31" t="s">
+        <v>267</v>
+      </c>
+      <c r="L31" t="s">
+        <v>268</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>269</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>276</v>
+      </c>
+      <c r="O32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>277</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>278</v>
+      </c>
+      <c r="J33" t="s">
+        <v>279</v>
+      </c>
+      <c r="K33" t="s">
+        <v>280</v>
+      </c>
+      <c r="L33" t="s">
+        <v>281</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>276</v>
+      </c>
+      <c r="O33" t="s">
+        <v>93</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>282</v>
+      </c>
+      <c r="X33" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>286</v>
+      </c>
+      <c r="J34" t="s">
+        <v>287</v>
+      </c>
+      <c r="K34" t="s">
+        <v>288</v>
+      </c>
+      <c r="L34" t="s">
+        <v>289</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>290</v>
+      </c>
+      <c r="O34" t="s">
+        <v>190</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>291</v>
+      </c>
+      <c r="X34" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>294</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J35" t="s">
+        <v>296</v>
+      </c>
+      <c r="K35" t="s">
+        <v>297</v>
+      </c>
+      <c r="L35" t="s">
+        <v>298</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>299</v>
+      </c>
+      <c r="X35" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>302</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>303</v>
+      </c>
+      <c r="J36" t="s">
+        <v>304</v>
+      </c>
+      <c r="K36" t="s">
+        <v>305</v>
+      </c>
+      <c r="L36" t="s">
+        <v>306</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>307</v>
+      </c>
+      <c r="O36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>308</v>
+      </c>
+      <c r="X36" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>311</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>312</v>
+      </c>
+      <c r="J37" t="s">
+        <v>313</v>
+      </c>
+      <c r="K37" t="s">
+        <v>314</v>
+      </c>
+      <c r="L37" t="s">
+        <v>315</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>316</v>
+      </c>
+      <c r="O37" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>318</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>319</v>
+      </c>
+      <c r="J38" t="s">
+        <v>320</v>
+      </c>
+      <c r="K38" t="s">
+        <v>321</v>
+      </c>
+      <c r="L38" t="s">
+        <v>322</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>323</v>
+      </c>
+      <c r="O38" t="s">
+        <v>79</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>325</v>
+      </c>
+      <c r="J39" t="s">
+        <v>326</v>
+      </c>
+      <c r="K39" t="s">
+        <v>327</v>
+      </c>
+      <c r="L39" t="s">
+        <v>328</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>323</v>
+      </c>
+      <c r="O39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>329</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>330</v>
+      </c>
+      <c r="J40" t="s">
+        <v>331</v>
+      </c>
+      <c r="K40" t="s">
+        <v>332</v>
+      </c>
+      <c r="L40" t="s">
+        <v>333</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>334</v>
+      </c>
+      <c r="O40" t="s">
+        <v>79</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>335</v>
+      </c>
+      <c r="X40" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>338</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>339</v>
+      </c>
+      <c r="J41" t="s">
+        <v>340</v>
+      </c>
+      <c r="K41" t="s">
+        <v>341</v>
+      </c>
+      <c r="L41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>343</v>
+      </c>
+      <c r="O41" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>345</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>346</v>
+      </c>
+      <c r="J42" t="s">
+        <v>347</v>
+      </c>
+      <c r="K42" t="s">
+        <v>348</v>
+      </c>
+      <c r="L42" t="s">
+        <v>349</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>350</v>
+      </c>
+      <c r="O42" t="s">
+        <v>79</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>351</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>352</v>
+      </c>
+      <c r="J43" t="s">
+        <v>353</v>
+      </c>
+      <c r="K43" t="s">
+        <v>354</v>
+      </c>
+      <c r="L43" t="s">
+        <v>355</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>356</v>
+      </c>
+      <c r="O43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>357</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>358</v>
+      </c>
+      <c r="J44" t="s">
+        <v>359</v>
+      </c>
+      <c r="K44" t="s">
+        <v>360</v>
+      </c>
+      <c r="L44" t="s">
+        <v>361</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>362</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>364</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>365</v>
+      </c>
+      <c r="J45" t="s">
+        <v>366</v>
+      </c>
+      <c r="K45" t="s">
+        <v>367</v>
+      </c>
+      <c r="L45" t="s">
+        <v>368</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>369</v>
+      </c>
+      <c r="O45" t="s">
+        <v>79</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>371</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>372</v>
+      </c>
+      <c r="J46" t="s">
+        <v>373</v>
+      </c>
+      <c r="K46" t="s">
+        <v>374</v>
+      </c>
+      <c r="L46" t="s">
+        <v>375</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>369</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>376</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>377</v>
+      </c>
+      <c r="J47" t="s">
+        <v>378</v>
+      </c>
+      <c r="K47" t="s">
+        <v>379</v>
+      </c>
+      <c r="L47" t="s">
+        <v>380</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>362</v>
+      </c>
+      <c r="O47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>381</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>382</v>
+      </c>
+      <c r="J48" t="s">
+        <v>383</v>
+      </c>
+      <c r="K48" t="s">
+        <v>384</v>
+      </c>
+      <c r="L48" t="s">
+        <v>385</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>386</v>
+      </c>
+      <c r="O48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>387</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>388</v>
+      </c>
+      <c r="J49" t="s">
+        <v>389</v>
+      </c>
+      <c r="K49" t="s">
+        <v>390</v>
+      </c>
+      <c r="L49" t="s">
+        <v>391</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>362</v>
+      </c>
+      <c r="O49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>392</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>393</v>
+      </c>
+      <c r="J50" t="s">
+        <v>394</v>
+      </c>
+      <c r="K50" t="s">
+        <v>395</v>
+      </c>
+      <c r="L50" t="s">
+        <v>396</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>397</v>
+      </c>
+      <c r="O50" t="s">
+        <v>93</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>398</v>
+      </c>
+      <c r="X50" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>401</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>402</v>
+      </c>
+      <c r="J51" t="s">
+        <v>403</v>
+      </c>
+      <c r="K51" t="s">
+        <v>404</v>
+      </c>
+      <c r="L51" t="s">
+        <v>405</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>406</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>407</v>
+      </c>
+      <c r="X51" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>410</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>411</v>
+      </c>
+      <c r="J52" t="s">
+        <v>412</v>
+      </c>
+      <c r="K52" t="s">
+        <v>413</v>
+      </c>
+      <c r="L52" t="s">
+        <v>414</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>397</v>
+      </c>
+      <c r="O52" t="s">
+        <v>79</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>416</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>417</v>
+      </c>
+      <c r="J53" t="s">
+        <v>418</v>
+      </c>
+      <c r="K53" t="s">
+        <v>419</v>
+      </c>
+      <c r="L53" t="s">
+        <v>420</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>421</v>
+      </c>
+      <c r="O53" t="s">
+        <v>79</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>407</v>
+      </c>
+      <c r="X53" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>423</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>424</v>
+      </c>
+      <c r="J54" t="s">
+        <v>425</v>
+      </c>
+      <c r="K54" t="s">
+        <v>426</v>
+      </c>
+      <c r="L54" t="s">
+        <v>427</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>428</v>
+      </c>
+      <c r="O54" t="s">
+        <v>79</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>429</v>
+      </c>
+      <c r="X54" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>432</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>433</v>
+      </c>
+      <c r="J55" t="s">
+        <v>434</v>
+      </c>
+      <c r="K55" t="s">
+        <v>435</v>
+      </c>
+      <c r="L55" t="s">
+        <v>436</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>437</v>
+      </c>
+      <c r="O55" t="s">
+        <v>79</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>429</v>
+      </c>
+      <c r="X55" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>439</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>440</v>
+      </c>
+      <c r="J56" t="s">
+        <v>441</v>
+      </c>
+      <c r="K56" t="s">
+        <v>442</v>
+      </c>
+      <c r="L56" t="s">
+        <v>443</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>444</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>445</v>
+      </c>
+      <c r="X56" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>448</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>449</v>
+      </c>
+      <c r="J57" t="s">
+        <v>450</v>
+      </c>
+      <c r="K57" t="s">
+        <v>451</v>
+      </c>
+      <c r="L57" t="s">
+        <v>452</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>453</v>
+      </c>
+      <c r="O57" t="s">
+        <v>79</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>429</v>
+      </c>
+      <c r="X57" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>455</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>456</v>
+      </c>
+      <c r="J58" t="s">
+        <v>457</v>
+      </c>
+      <c r="K58" t="s">
+        <v>458</v>
+      </c>
+      <c r="L58" t="s">
+        <v>459</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_65.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_65.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="736">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r503197710-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107930</t>
+  </si>
+  <si>
+    <t>503197710</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Will Leave You Stranded.</t>
+  </si>
+  <si>
+    <t>The ac kept making a noise, but didn't think much of it. On the second night right before 11pm it started making a loud noise started to smell of smoke. I called the front desk to let them know and the lady said she would see if there was another room available. The call back took a while to the point we were able to pack all our stuff. The front desk called back and all they had was a smoking room which we didn't want due to worry of it causing breathing issues. That was all she offered until I asked if there was a sister hotel nearby. She said she would have to check and call us back. At this point we went down to the lobby where three staff members were hanging around talking about a till. When we told them we were the ones with the AC problem a guy once again tried to convince us to take the smoking room. We said no and asked again about a sister hotel. All he did was give us the names of two locations and stated they were far. He then asked if we wanted to check out and not be changed the night we were suppose to stay. We ended up checking out since they obviously weren't going to help us and leave us stranded in another city late at night. We ended up having to drive...The ac kept making a noise, but didn't think much of it. On the second night right before 11pm it started making a loud noise started to smell of smoke. I called the front desk to let them know and the lady said she would see if there was another room available. The call back took a while to the point we were able to pack all our stuff. The front desk called back and all they had was a smoking room which we didn't want due to worry of it causing breathing issues. That was all she offered until I asked if there was a sister hotel nearby. She said she would have to check and call us back. At this point we went down to the lobby where three staff members were hanging around talking about a till. When we told them we were the ones with the AC problem a guy once again tried to convince us to take the smoking room. We said no and asked again about a sister hotel. All he did was give us the names of two locations and stated they were far. He then asked if we wanted to check out and not be changed the night we were suppose to stay. We ended up checking out since they obviously weren't going to help us and leave us stranded in another city late at night. We ended up having to drive three hours back home at 11pm at night. Never staying here again. Thanks for cutting our vacation short and leaving us high and dry.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The ac kept making a noise, but didn't think much of it. On the second night right before 11pm it started making a loud noise started to smell of smoke. I called the front desk to let them know and the lady said she would see if there was another room available. The call back took a while to the point we were able to pack all our stuff. The front desk called back and all they had was a smoking room which we didn't want due to worry of it causing breathing issues. That was all she offered until I asked if there was a sister hotel nearby. She said she would have to check and call us back. At this point we went down to the lobby where three staff members were hanging around talking about a till. When we told them we were the ones with the AC problem a guy once again tried to convince us to take the smoking room. We said no and asked again about a sister hotel. All he did was give us the names of two locations and stated they were far. He then asked if we wanted to check out and not be changed the night we were suppose to stay. We ended up checking out since they obviously weren't going to help us and leave us stranded in another city late at night. We ended up having to drive...The ac kept making a noise, but didn't think much of it. On the second night right before 11pm it started making a loud noise started to smell of smoke. I called the front desk to let them know and the lady said she would see if there was another room available. The call back took a while to the point we were able to pack all our stuff. The front desk called back and all they had was a smoking room which we didn't want due to worry of it causing breathing issues. That was all she offered until I asked if there was a sister hotel nearby. She said she would have to check and call us back. At this point we went down to the lobby where three staff members were hanging around talking about a till. When we told them we were the ones with the AC problem a guy once again tried to convince us to take the smoking room. We said no and asked again about a sister hotel. All he did was give us the names of two locations and stated they were far. He then asked if we wanted to check out and not be changed the night we were suppose to stay. We ended up checking out since they obviously weren't going to help us and leave us stranded in another city late at night. We ended up having to drive three hours back home at 11pm at night. Never staying here again. Thanks for cutting our vacation short and leaving us high and dry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r503193538-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503193538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrible Experience </t>
+  </si>
+  <si>
+    <t>Terrible experience... As we were starting to sleep the AC unit started making a weird electric zapping sound. It immediately smelled like something in there caught fire. We immediately turned it off and called the front desk. Front desk said they were booked up and could only put us in a smoking room. I can't sleep in a smoking room. I'm really sensitive to cigarette smoke. Instead of offering to check on area sister hotels for availability and move us, they said all they could do is check us out. They left us high and dry at midnight to try and find another place to stay. They were no help. I definitely won't stay at Candlewood again and will think twice about using an IGH hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Terrible experience... As we were starting to sleep the AC unit started making a weird electric zapping sound. It immediately smelled like something in there caught fire. We immediately turned it off and called the front desk. Front desk said they were booked up and could only put us in a smoking room. I can't sleep in a smoking room. I'm really sensitive to cigarette smoke. Instead of offering to check on area sister hotels for availability and move us, they said all they could do is check us out. They left us high and dry at midnight to try and find another place to stay. They were no help. I definitely won't stay at Candlewood again and will think twice about using an IGH hotel. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r501886433-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107930</t>
-  </si>
-  <si>
     <t>501886433</t>
   </si>
   <si>
@@ -174,12 +213,6 @@
     <t>This Candlewood is offering a lot for the dollar. Spacious room with well equipped kitchen (electric hob, coffeemaker, dishwasser). There's a starterkit with coffee and tea. Room is spacious. I found the bed ok, my wife was not impressed.Tip: be aware you are not located above or next the (smokers) gazebo. As the nights are hot and warm, so are the smokers loud and late.The airco had a strange tic tac toc sound ongoing. Switching off did not help.</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r480619065-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -235,6 +268,39 @@
   </si>
   <si>
     <t>We stayed at this location during our first ever trip to Houston and most importantly the Super Bowl. The price was engorged far beyond what this room was worth, the air did not work, there are no decent restaurants nearby and the service was below our expectations. The only positive about this property was it was close to the stadium and mall. Would not recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r468527591-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468527591</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Visit to Houston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This little gem is tucked away. You'd never know it was there. Very clean. Staff very friendly. Everything from parking to everything on the room was awesome. Very quiet.  Bathroom was great. Hot water right away. Coffee, tea, and popcorn in the rooms. Full kitchen. A pantry down the hall for anything you forgot. Two thumbs up.  </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r457400245-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457400245</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slightly above average suite hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean. Has oven,microwave,fridge,dishwasher. Dog friendly property. Staff is friendly.  Fairly spacious. Have no complaints. Beds were comfy too. Area is near some business parks, strip malls, some close restaurants. Close enough to Houston down town area. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r436968214-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
@@ -310,6 +376,42 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r422635018-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422635018</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel Near Galleria Mall</t>
+  </si>
+  <si>
+    <t>Nice hotel near Galleria Mall.  All rooms have full kitchen.  Some suites have separate bedroom.  Inexpensive continental breakfast items available in their "pantry".  Located near intersection of 2 major freeways.  Traffic can be unbearable during rush hour especially on frontage road adjacent to hotel.  Learn to find your way around town using the surface streets to avoid the stress.  Was able to reach NRG Reliant Stadium in less than 30 mins using back streets with virtually no traffic.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r406317629-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>406317629</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Good choice fair price</t>
+  </si>
+  <si>
+    <t>This hotel is a very good choice if you dont want to waste too much in a Hotel room, it is very cheap and rooms have a small kitchen that you can use to save some money, there is no luxury, there is no restaurant but "who cares" exellent option if you wan to go shopping at Galleria (very close) or you want to go downtown</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r385541536-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -367,15 +469,60 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r347010723-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347010723</t>
+  </si>
+  <si>
+    <t>02/11/2016</t>
+  </si>
+  <si>
+    <t>NEVER Go for this Candlewood location</t>
+  </si>
+  <si>
+    <t>Being a Sprite Elite member, I have stayed for more than 120 days during last 1 year in various hotels of IHG and never ever felt humiliated like in this location. I experienced Extremely Rude behavior by Front Desk personnel Hilary Richard which shocked me to the core.On my way back to hotel room, I asked for 2 Water bottles at the front desk this evening as the Water inside the room may not be drinkable. She instantly offered me money and a ride to grocery store to buy water saying you may not have $3 to buy water.When I suggested her to behave properly with guests and simply say NO, if hotel policy doesn't allow pure drinkable Water to Guests, she repeated her same line - 'I will pay for your Water and we have money.  You seem don't have $3 so let's go to grocery store.' It seems that hotel staff has no respect for guests. I sincerely request the IHG management to look into the matter and make sure, if you can't provide basic amenities like Drinking Water, At least, give RESPECT to the Guests and show politeness.Guests are not BEGGARSI am extremely disappointed and will think twice before recommending IHG hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded February 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2016</t>
+  </si>
+  <si>
+    <t>Being a Sprite Elite member, I have stayed for more than 120 days during last 1 year in various hotels of IHG and never ever felt humiliated like in this location. I experienced Extremely Rude behavior by Front Desk personnel Hilary Richard which shocked me to the core.On my way back to hotel room, I asked for 2 Water bottles at the front desk this evening as the Water inside the room may not be drinkable. She instantly offered me money and a ride to grocery store to buy water saying you may not have $3 to buy water.When I suggested her to behave properly with guests and simply say NO, if hotel policy doesn't allow pure drinkable Water to Guests, she repeated her same line - 'I will pay for your Water and we have money.  You seem don't have $3 so let's go to grocery store.' It seems that hotel staff has no respect for guests. I sincerely request the IHG management to look into the matter and make sure, if you can't provide basic amenities like Drinking Water, At least, give RESPECT to the Guests and show politeness.Guests are not BEGGARSI am extremely disappointed and will think twice before recommending IHG hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r344396603-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344396603</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Normal service for Candlewood</t>
+  </si>
+  <si>
+    <t>The room was as expected with a Candlewood with its own little kitchen. Room was good and well kept. Bed was comfortable and perfect. There is a little shop with snacks near the lobby. Lots of parking spaces and close to Galleria Mall, by car. No restaurants close.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded February 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2016</t>
+  </si>
+  <si>
+    <t>The room was as expected with a Candlewood with its own little kitchen. Room was good and well kept. Bed was comfortable and perfect. There is a little shop with snacks near the lobby. Lots of parking spaces and close to Galleria Mall, by car. No restaurants close.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r344296969-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
     <t>344296969</t>
   </si>
   <si>
-    <t>02/01/2016</t>
-  </si>
-  <si>
     <t>Great Location</t>
   </si>
   <si>
@@ -436,6 +583,63 @@
     <t>My young daughter and I, just two girls off to see the big city, what a trip. A neighbor gave me a heads up on this hotel and I was not disappointed. From the wonderful girl at the front desk, more about her later, to a really nice clean room, this is a great place to stay. Our room was on the third floor and had everything two people would need in the kitchen, it was really surprising to find it that well stocked. There was even a bag of microwave popcorn and two bowls in the micro. It was a fun stay all in all. They have a room on the first floor with ice cream, frozen foods, chips ,soda all manner of snacks and sweets and treats. There is another area where you can borrow small kitchen appliances or you can go to the desk and borrow CDs for the player in your room. If you need anything talk to the young girl at the desk, her name is Hillary, I left that hotel with a very warm feeling for that young lady. My daughter is very shy and a little withdrawn, it's the age. Hillary picked up on that right off and went out of her way to befriend Mollie. On the way home I had to promise and cross my heart that next summer we'll go see Hillary again and maybe have supper together. Thank you...My young daughter and I, just two girls off to see the big city, what a trip. A neighbor gave me a heads up on this hotel and I was not disappointed. From the wonderful girl at the front desk, more about her later, to a really nice clean room, this is a great place to stay. Our room was on the third floor and had everything two people would need in the kitchen, it was really surprising to find it that well stocked. There was even a bag of microwave popcorn and two bowls in the micro. It was a fun stay all in all. They have a room on the first floor with ice cream, frozen foods, chips ,soda all manner of snacks and sweets and treats. There is another area where you can borrow small kitchen appliances or you can go to the desk and borrow CDs for the player in your room. If you need anything talk to the young girl at the desk, her name is Hillary, I left that hotel with a very warm feeling for that young lady. My daughter is very shy and a little withdrawn, it's the age. Hillary picked up on that right off and went out of her way to befriend Mollie. On the way home I had to promise and cross my heart that next summer we'll go see Hillary again and maybe have supper together. Thank you Hillary for your kindness and sweetness. I found the room very clean and well kept, even the dishes were spotless. The staff seem approachable and friendly and maybe this rubs off on the guests you pass in the hallways, it just feels very safe. So, to sum it up in 500 words or less, I found this hotel safe , clean , well stocked, affordable and staffed with people that smiled and helped. I can't end this without thanking Hillary for the helpful directions around Houston and where to find the best shopping and food and for the extras you gave Mollie that were not part of your job but are part of your kindness...May and MollieMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r319936746-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>319936746</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>Not good for business trips, decent otherwise</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 5 days on a business trip. It is a no frills hotel which i guess is good when staying for long durations. But for a short business trip, you can get places much closer to downtown at the same price.The rooms are pretty large and self sufficient. There is an attached kitchen with microwave, stove, fridge, utensils etc. They give you a complimentary pack of popcorns which come in really handy when midnight hunger strikes. The bathroom is also pretty decent and has a tub. They have something called the Candlewood cupboard which basically has all essential items available for purchase 24hrs a day. That includes refrigerated food and beverages, microwavable items, shaving kit, toothbrush and the likes. That was the good part, now for the not so good part. There is no restaurant in the hotel, not even breakfast options so you basically need to go out everyday to eat in the morning. There is a subway and a diner in the vicinity and those are your only options. Housekeeping comes once in 7 days so the room and bathroom  cleanliness is dependant on you.  Some of the staff are helpful and ya...you can borrow dvd's from the reception if you want. Overall I Give it a 3 out of 5 simply because i went on a business trip and i dont think this is a good business hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 5 days on a business trip. It is a no frills hotel which i guess is good when staying for long durations. But for a short business trip, you can get places much closer to downtown at the same price.The rooms are pretty large and self sufficient. There is an attached kitchen with microwave, stove, fridge, utensils etc. They give you a complimentary pack of popcorns which come in really handy when midnight hunger strikes. The bathroom is also pretty decent and has a tub. They have something called the Candlewood cupboard which basically has all essential items available for purchase 24hrs a day. That includes refrigerated food and beverages, microwavable items, shaving kit, toothbrush and the likes. That was the good part, now for the not so good part. There is no restaurant in the hotel, not even breakfast options so you basically need to go out everyday to eat in the morning. There is a subway and a diner in the vicinity and those are your only options. Housekeeping comes once in 7 days so the room and bathroom  cleanliness is dependant on you.  Some of the staff are helpful and ya...you can borrow dvd's from the reception if you want. Overall I Give it a 3 out of 5 simply because i went on a business trip and i dont think this is a good business hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r315044744-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>315044744</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>Mold</t>
+  </si>
+  <si>
+    <t>I will not be staying at this hotel anymore. I was there last week and the smell in the room was horrible  it also felt very humid. On Thursday the alarm went off around 2am and we were outside for a very long time. The staff never came outside to notify us that it was safe to come inside over an hour passed and I started to see people walk inside and I heard the staff telling the guest it was ok to go in but I thought  it was very unprofessional that they did not come outside to notify us.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2015</t>
+  </si>
+  <si>
+    <t>I will not be staying at this hotel anymore. I was there last week and the smell in the room was horrible  it also felt very humid. On Thursday the alarm went off around 2am and we were outside for a very long time. The staff never came outside to notify us that it was safe to come inside over an hour passed and I started to see people walk inside and I heard the staff telling the guest it was ok to go in but I thought  it was very unprofessional that they did not come outside to notify us.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r312501617-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -445,13 +649,7 @@
     <t>09/21/2015</t>
   </si>
   <si>
-    <t>Mold</t>
-  </si>
-  <si>
     <t>This is my third stay here.  The first two stays were pretty much ok.  This time, the first room they gave me reeked of mold so bad it made my eyes burn.  The carpets were damp, even in the closet.  I was given a second room that was better but it was still damp, smelled faintly of mold and the carpets were dirty.  For God's sake, replace the carpets with a hard surface and invest in a humidifier system.  This is a health hazard.MoreShow less</t>
-  </si>
-  <si>
-    <t>September 2015</t>
   </si>
   <si>
     <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded October 7, 2015</t>
@@ -508,6 +706,48 @@
   <si>
     <t>Traveling for medical reasons we found this hotel by accident 4 weeks before we stayed there. The young lady at the desk, Hilary, went out of her way to answer our questions and show us "her" hotel. The back story is that we had just spent a week in a terrible hotel and were on our way home 350 miles away knowing we had to come back in 4 weeks for another week. As we drove by this hotel my smart wife decided this time she was going to do the picking so we stopped and went in. After all the questions Hilary must have realized we were damaged so she offered to show us a room. After more questions Hilary reserved a room for us and we headed home. Four weeks later we showed up and Hilary still remembered us, no wonder. The room we were given was spotless, I wore white socks and they stayed white. The house keeping staff are great, it was really that clean. Everything we needed was in that room or available at the front desk plus everybody is friendly.
       We found out we have to go back to Houston in 6 weeks, more medical, and gave thoughts to changing to the Candlewood Suites hotel closer to the hospitals. My wife and I talked and we just couldn't do it, We're going to stay at Hilary's hotel, heck we even went down and she...Traveling for medical reasons we found this hotel by accident 4 weeks before we stayed there. The young lady at the desk, Hilary, went out of her way to answer our questions and show us "her" hotel. The back story is that we had just spent a week in a terrible hotel and were on our way home 350 miles away knowing we had to come back in 4 weeks for another week. As we drove by this hotel my smart wife decided this time she was going to do the picking so we stopped and went in. After all the questions Hilary must have realized we were damaged so she offered to show us a room. After more questions Hilary reserved a room for us and we headed home. Four weeks later we showed up and Hilary still remembered us, no wonder. The room we were given was spotless, I wore white socks and they stayed white. The house keeping staff are great, it was really that clean. Everything we needed was in that room or available at the front desk plus everybody is friendly.      We found out we have to go back to Houston in 6 weeks, more medical, and gave thoughts to changing to the Candlewood Suites hotel closer to the hospitals. My wife and I talked and we just couldn't do it, We're going to stay at Hilary's hotel, heck we even went down and she reserved a room in September and did the paperwork for us. If you have questions, are a little lost or just want a great smile, look this lovely lady up. Marilyn &amp; VinceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r295873832-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295873832</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Great Galleria Hotel</t>
+  </si>
+  <si>
+    <t>Rooms are quite.  I selected a Queen suite.  Large flat screen TV.  Very comfortable bed.  Full kitchen with microwave and dishwasher.  Fast WiFi compared to a lot of hotels.  Large work space on built-in cabinets.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r284479552-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284479552</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Chamanana</t>
+  </si>
+  <si>
+    <t>Spacious rooms, comfy bed. Love all the space in the bathroom. General manager has been very attentive to our corporate needs. Beatrice at the front desk is delightful! Cons are: awkward layout with manually opened lobby doors make it difficult to get a luggage cart in and out; this is a pet friendly property so barking dogs can occasionally be disturbing.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Denise R, Director of Sales at Candlewood Suites Houston by the Galleria, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Spacious rooms, comfy bed. Love all the space in the bathroom. General manager has been very attentive to our corporate needs. Beatrice at the front desk is delightful! Cons are: awkward layout with manually opened lobby doors make it difficult to get a luggage cart in and out; this is a pet friendly property so barking dogs can occasionally be disturbing.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r274527952-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
@@ -590,6 +830,54 @@
     <t>Been here a few weeks. Room nice layout and modern upgrades. Full size frig and dishwasher. Huge laundry room with lots of machines. Great modern gym. Plenty of parking. Friendly staff. Super easy access to local highways. Cajun eatery within walking distance.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r259838027-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259838027</t>
+  </si>
+  <si>
+    <t>Great night sleep!</t>
+  </si>
+  <si>
+    <t>I had friendly and welcoming service, and the facility and room were clean.  My standout experience was a comfortable bed and a VERY quiet room (I believe it was room 303).  I slept very well.  I bring my own food and eat in, and the kitchen did everything I needed.  This was a short business stay so I didn't use any of the other hotel amenities. Overall the hotel was average, but I give 5 stars for the good night sleep.  So maybe 3.5 stars if I had the option?  More important, this hotel was convenient to my business meeting and met my needs so I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded April 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2015</t>
+  </si>
+  <si>
+    <t>I had friendly and welcoming service, and the facility and room were clean.  My standout experience was a comfortable bed and a VERY quiet room (I believe it was room 303).  I slept very well.  I bring my own food and eat in, and the kitchen did everything I needed.  This was a short business stay so I didn't use any of the other hotel amenities. Overall the hotel was average, but I give 5 stars for the good night sleep.  So maybe 3.5 stars if I had the option?  More important, this hotel was convenient to my business meeting and met my needs so I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r259574240-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259574240</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>hotel is average</t>
+  </si>
+  <si>
+    <t>Hotel was quite decent, for the price, however.....The whole lobby area has a really bad stink, and you have to cross the place every time you get on and off the room, so, can be irritating.Staff are just clueless. They are smiling and courteous but when you have a query or ask them something, you realize that they are not well trained.Heard Customers complaining about their rooms quite a few times, but my room was quite good, so not sure if i will stay here again on my next visit to houstonMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded March 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2015</t>
+  </si>
+  <si>
+    <t>Hotel was quite decent, for the price, however.....The whole lobby area has a really bad stink, and you have to cross the place every time you get on and off the room, so, can be irritating.Staff are just clueless. They are smiling and courteous but when you have a query or ask them something, you realize that they are not well trained.Heard Customers complaining about their rooms quite a few times, but my room was quite good, so not sure if i will stay here again on my next visit to houstonMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r254575093-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -605,12 +893,6 @@
     <t>This is the first time I was not impressed with a hotel, especially with the IHG line. When I arrived they seemed to be short staffed and our rooms weren't ready. The front desk clerk seemed overwhelmed and had an attitude. He did not explain the instructions correctly for charging my card or putting any authorization on it &amp; I have never heard of needing a 3rd party form to take payment over the phone. The maids never came to clean my room and when I requested new towels it took almost an hour to receive them. The vending machines with food/drinks were way over priced and I was not happy how they treated my guest that were staying with me. Upon check out I asked about the IHG goodie bags and why I had not received one and the front desk female replied that they were only for members, which if she check my reservation or asked me she would of known that I am a member. I am used to getting this upon arrival and the way she responded to me was like I was not good enough to receive a small bottle of water and snacks. The room was ok but I was also curious why there wasn't any ventilation system in the bathroom because it got real hot and steamy when trying to take a shower there was no where for the air to go. This...This is the first time I was not impressed with a hotel, especially with the IHG line. When I arrived they seemed to be short staffed and our rooms weren't ready. The front desk clerk seemed overwhelmed and had an attitude. He did not explain the instructions correctly for charging my card or putting any authorization on it &amp; I have never heard of needing a 3rd party form to take payment over the phone. The maids never came to clean my room and when I requested new towels it took almost an hour to receive them. The vending machines with food/drinks were way over priced and I was not happy how they treated my guest that were staying with me. Upon check out I asked about the IHG goodie bags and why I had not received one and the front desk female replied that they were only for members, which if she check my reservation or asked me she would of known that I am a member. I am used to getting this upon arrival and the way she responded to me was like I was not good enough to receive a small bottle of water and snacks. The room was ok but I was also curious why there wasn't any ventilation system in the bathroom because it got real hot and steamy when trying to take a shower there was no where for the air to go. This made it hard to style hair. I was very disappointed with this hotel. Another concern is that my jewelry was stolen and the manager is not taking this seriously but instead making excuses for her staff &amp; making me feel as if it my fault my jewerly is missing. She hung up on my mother when she called to inquire about the situation and overall this was an unacceptable stay. As a veteran who had to drive 3 hours back home exhausted I did not appreciate the lack of concern for my valuables nor the disrespect towards myself &amp; my loving mother. This matter has yet to be resolved and I am filing a police report.MoreShow less</t>
   </si>
   <si>
-    <t>February 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded March 3, 2015</t>
   </si>
   <si>
@@ -656,6 +938,51 @@
     <t>I stayed 3 nights at the Candlewood Suites.  It was very clean and comfortable.  The staff were fantastic!  There's a snack bar that is well stocked and a movie lending library.  The units are suites with kitchens, which was very convenient.  Great wifi.  Excellent water pressure. Gym on site.  The tub and fridge look a little dated, but both were clean and functional.  For the price, this was a fantastic find!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r251374228-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251374228</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>You Might Get Stuck in a Smoking Room Even if You're a Non-Smoker!!!</t>
+  </si>
+  <si>
+    <t>Granted, the rates are less than other nearby properties, but not the lowest in the area. I don't smoke, but I was stuck in a room that smelled so smoky, it irritated my eyes. I asked the staff twice for another room, but I was told nothing was available. Had the room not been pre-paid I would have checked out of the hotel.There are much better options. Steer clear of this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded February 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2015</t>
+  </si>
+  <si>
+    <t>Granted, the rates are less than other nearby properties, but not the lowest in the area. I don't smoke, but I was stuck in a room that smelled so smoky, it irritated my eyes. I asked the staff twice for another room, but I was told nothing was available. Had the room not been pre-paid I would have checked out of the hotel.There are much better options. Steer clear of this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r241514144-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241514144</t>
+  </si>
+  <si>
+    <t>11/25/2014</t>
+  </si>
+  <si>
+    <t>Good service, great facilities and comfortable room</t>
+  </si>
+  <si>
+    <t>The staff gave good and polite service.The room was nice, clean and comfortable. The kitchen is very good equiped.It's possible to rent DVDs for free.There's a gym and loundry room for free.The location is just few minutes from the Galeria shopping mall.We enjoyed our stay very much</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r238509192-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -671,9 +998,6 @@
     <t>This hotel is tucked away near the Galleria. Friendly staff, my room and the hallway to it smelled like cigarettes. Work out room was above average. They have free rental movies for the dvd in the room.</t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r232755098-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -713,6 +1037,51 @@
     <t>My husband and I arrived at the Candlewood Suites about 11:00 pm. There was a line about 4 people long to check in and it took us almost 20 minutes to get a room.  When we did get a room, we opened the door and the room was a mess. The smell was disgusting, there were dirty dishes all over and underwear on the floor! We closed the door immediately and went back to the desk for another room.  The lady at the front apologized and we got a different room on the second floor. When we got to our second room, the door was open.  We found this sort of strange because anyone could have just walked in used the room after it was cleaned.  We went ahead and stayed in this room because we were exhausted.  During our stay, our room was not cleaned and we had to get our own new towels. Our room key stopped working and we couldn't get in to the building at midnight.  Overall we were very disappointed with many things including:  the price of the rooms for the quality, the terrible maid service, dirty rooms, unlocked door to our room (strange), difficulty with room key, lack of toiletries, and overall cleanliness. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r213826244-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213826244</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>A Tribute to Lynyrd Skynyrd - Oh That Smell</t>
+  </si>
+  <si>
+    <t>Well a first for me.  I walked into a room and almost immediately walked out. Not sure why the cleaning staff didn't notice the smell when they were cleaning, but "Can't you smell that smell"?  Went right back to the front desk and asked if another room was available.  The guy running the desk promptly gave me another room.  The new room was fine.  Comfortable bed, decent internet speed, and enough tv channels.  Room was clean.  A comfortable night's stay.Just wish the cleaning staff would have done something about the smell in the room, but a prompt fix by the front desk.  An "A" for the front desk guy, but a "D" for the cleaning staff."MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded July 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2014</t>
+  </si>
+  <si>
+    <t>Well a first for me.  I walked into a room and almost immediately walked out. Not sure why the cleaning staff didn't notice the smell when they were cleaning, but "Can't you smell that smell"?  Went right back to the front desk and asked if another room was available.  The guy running the desk promptly gave me another room.  The new room was fine.  Comfortable bed, decent internet speed, and enough tv channels.  Room was clean.  A comfortable night's stay.Just wish the cleaning staff would have done something about the smell in the room, but a prompt fix by the front desk.  An "A" for the front desk guy, but a "D" for the cleaning staff."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r208913675-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>208913675</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>As first-time visitors to the Houston area, we did not know what to expect. The Candlewood made us feel right at home. We generally prefer a suite rather than a single room, and this one exceeded our expectations. It was Texas-HUGE! Bedroom, bath, living room, kitchenette were all gorgeous, well-appointed and spotlessly clean. Free on-site parking is provided, no small thing in a city like Houston. I can't say enough good things! If we don't stay with family on our next Houston trip, Candlewood will be our go-to place, without a doubt.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r208230117-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -776,6 +1145,57 @@
     <t>I stayed at this Hotel from  2 to 12 May 2014 and I found my stay very comfortable and got value for my money. The staff have the key to success in the hospitality business - willingness to help guests. The facilities were clean and modern. the environment was quiet and just a mile to the Galleria. The staff were friendly and color-blind (that is important for me). The Gym was quite good for workout.I will stay at the hotel again and again PROVIDED my 2014 experience remains constant.Otunba Abiodun OlufowobiMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r203789532-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203789532</t>
+  </si>
+  <si>
+    <t>05/02/2014</t>
+  </si>
+  <si>
+    <t>Lacks consistency, but a good option for the area</t>
+  </si>
+  <si>
+    <t>I've stayed at this location now 4 times, typically for 2-3 days at a time. I find the location to be fantastic and the accommodations pretty good. The service and experience have been hit and miss. This most recent time I was stuck in a smoking room (full), asked to be changed the next day and the front desk guy promised to switch me and would leave a vmail with my new room #. I came back to learn he didn't do anything. The new person did hook me up with a 2nd floor 2 bedroom that was great. Some of the folks are pleasant and others surely show they wish they weren't there.Tips: 3rd floor is smoking, they permit animals, they offer free laundry and they have a small self serve kitchen area that's limited but hits the basics. Pros: quiet, decent bed, outstanding desk and kitchen areas that appear to be remodeled in the past year or 2, fitness room and really good internet.Cons: the late night check-in can be randomly good or painful, the service personnel are also inconsistent, the water shower pressure and a/c is not impressive.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded May 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2014</t>
+  </si>
+  <si>
+    <t>I've stayed at this location now 4 times, typically for 2-3 days at a time. I find the location to be fantastic and the accommodations pretty good. The service and experience have been hit and miss. This most recent time I was stuck in a smoking room (full), asked to be changed the next day and the front desk guy promised to switch me and would leave a vmail with my new room #. I came back to learn he didn't do anything. The new person did hook me up with a 2nd floor 2 bedroom that was great. Some of the folks are pleasant and others surely show they wish they weren't there.Tips: 3rd floor is smoking, they permit animals, they offer free laundry and they have a small self serve kitchen area that's limited but hits the basics. Pros: quiet, decent bed, outstanding desk and kitchen areas that appear to be remodeled in the past year or 2, fitness room and really good internet.Cons: the late night check-in can be randomly good or painful, the service personnel are also inconsistent, the water shower pressure and a/c is not impressive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r198503053-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198503053</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>SERVICE, service, service...</t>
+  </si>
+  <si>
+    <t>I was coming from Louisiana to Houston to visit a friend staying in an hospital and at the last minute our friend was release and needed us to stay with her at her place. We booked this hotel and our rate was not refundable. As a long shot, I decided to stop by to check if they could do anything about our situation. I came in, said hello to the friendly staff and explained my dilemma. The Front Desk Supervisor just told me: "That's ok, I'll issue you a refund to your card, hope you come back to visit us!" Well done Candlewood Houston Galleria, I'll be back..THANK YOUMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Vanessa L, Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2014</t>
+  </si>
+  <si>
+    <t>I was coming from Louisiana to Houston to visit a friend staying in an hospital and at the last minute our friend was release and needed us to stay with her at her place. We booked this hotel and our rate was not refundable. As a long shot, I decided to stop by to check if they could do anything about our situation. I came in, said hello to the friendly staff and explained my dilemma. The Front Desk Supervisor just told me: "That's ok, I'll issue you a refund to your card, hope you come back to visit us!" Well done Candlewood Houston Galleria, I'll be back..THANK YOUMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r196799804-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -851,6 +1271,51 @@
     <t>I cant for the life of me understand why this great hotel doesn't get more reviews.. I arrived on 15 September for a 5 night stay. It was my first Candlewood experience so I didn't know what was in store for me.. I was welcomed by I think the most attentive and personable front desk staffer I have ever met. Mary was so welcoming and friendly and took the time to explain all the features and the quirks of her hotel. Hotels need more staff like Mary. My room felt like brand new, plus the halls had been repainted and carpeted and all the fittings in the room and bathroom renewed. It was great to cook meals, plus have the use of a big fridge/freezer and dishwasher. The laundry had nice new washers and dryers and parking out the front was always plentiful. Based on the positive experience, I decided to book an onward stay at the Candlewood in Vegas. The only negative experience, the front desk person on departure could have been a little bit more pleasant. Well done Candlewood Houston Galleria, I'll be back..More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r168795825-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168795825</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Pretty decent stay</t>
+  </si>
+  <si>
+    <t>I arrived to this place and it is pretty nice. Obviously if you are looking for a full service hotel or stay this would not be a spot for you, but if you want to stay for one night or a week it is a good place for the price. We were greeted and welcomed very nicely, they recognized me as a IHG member and gave me my goodie bag..There is a laundry and a "honest" store, where you get food or products and pay in the front. They also have free DVDs to check out. The rooms are nice and roomy, only downside on ours was that the restroom door did not close but not a big deal. We only stayed one night and was a very calm stay. U are in the middle of everything here, the biggest mall in Htown Galleria is about 5 min. away. Downtown is about 10-15 min away and midtown about 5 min. away..Overall a good stay and would recommend to someone who is looking for a calm and chill stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>I arrived to this place and it is pretty nice. Obviously if you are looking for a full service hotel or stay this would not be a spot for you, but if you want to stay for one night or a week it is a good place for the price. We were greeted and welcomed very nicely, they recognized me as a IHG member and gave me my goodie bag..There is a laundry and a "honest" store, where you get food or products and pay in the front. They also have free DVDs to check out. The rooms are nice and roomy, only downside on ours was that the restroom door did not close but not a big deal. We only stayed one night and was a very calm stay. U are in the middle of everything here, the biggest mall in Htown Galleria is about 5 min. away. Downtown is about 10-15 min away and midtown about 5 min. away..Overall a good stay and would recommend to someone who is looking for a calm and chill stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r167071466-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167071466</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Great,  but could improve</t>
+  </si>
+  <si>
+    <t>Great overall stay,  only concern was AC.   AC was at, 69 and I was sweating at night,  I had to bring it down to about 61. Everything else was good,  has dishwasher,  fridge,  iron,  sink,  almost of not a full kitchen.  Also has a recliner. GOod value for price MoreShow less</t>
+  </si>
+  <si>
+    <t>Marilda D, General Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded July 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2013</t>
+  </si>
+  <si>
+    <t>Great overall stay,  only concern was AC.   AC was at, 69 and I was sweating at night,  I had to bring it down to about 61. Everything else was good,  has dishwasher,  fridge,  iron,  sink,  almost of not a full kitchen.  Also has a recliner. GOod value for price More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r163301203-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -920,6 +1385,60 @@
     <t>This is my first stay in a Candlewood property.  Quite frankly I wasn't sure what to expect, especially after the highly unusual process for checking in at 11:15pm on a Monday night.  The room is nicer than expected and is truly built as a suite for extended stay guests.  The rooms are a nice size, although not huge.  All include refridgerator, microwave, dishwasher, and cooktop.  It might be described a cute.  Maybe even a little Ikea feel.What you need to know:The Good:  It's in the Galleria area, although very south edge, business area. Coffee isn't bad and the people have generally been nice.  It's clean and appears generally cared for and in good condition.  The water gets hot and has moderate pressure.  The bathroom has more safety features than most.  (grip bars, anti slip).  TV is good and desk space i s awesome.  The space is really comfortable.  Parking and in and out is super simple.The bad, although better said as areas to be informed:  they apparently permit animals as I was awakened by a loud dog next door at 7am.  The bathroom has everything you need, but no countertop areas for items.  The bed is just ok.  Nothing is high end, but hey, this isn't a 4 or 5 star place. The air unit is a little loud.  If you're a light sleeper, this is gonna make you nuts.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r155072137-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155072137</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>It really is a strange place</t>
+  </si>
+  <si>
+    <t>The suites are nice. New carpet, comfortable bed, a feeling of clean and new. The front desk has limited hours so good luck if you need to ask a question during the night or even at 6am. They have complimentary coffee all day--theoretically--but the machine was broken when I was here. The fitness room is--predictably--tiny. They have an honor system "pantry" where you can purchase food--I guess good for emergencies but really nothing worth eating. The people at the desk are great. Without a car....this location is pretty much the pits. It's way far from the Galleria Mall itself. I was able to hike across some roads and eat at a not-too-bad fast food Cajun place. People here seem to be down on their luck--staying here while they look for permanent housing or in for short-term assignments. i was glad to go.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded April 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2013</t>
+  </si>
+  <si>
+    <t>The suites are nice. New carpet, comfortable bed, a feeling of clean and new. The front desk has limited hours so good luck if you need to ask a question during the night or even at 6am. They have complimentary coffee all day--theoretically--but the machine was broken when I was here. The fitness room is--predictably--tiny. They have an honor system "pantry" where you can purchase food--I guess good for emergencies but really nothing worth eating. The people at the desk are great. Without a car....this location is pretty much the pits. It's way far from the Galleria Mall itself. I was able to hike across some roads and eat at a not-too-bad fast food Cajun place. People here seem to be down on their luck--staying here while they look for permanent housing or in for short-term assignments. i was glad to go.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r152753468-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152753468</t>
+  </si>
+  <si>
+    <t>02/21/2013</t>
+  </si>
+  <si>
+    <t>VERY nice place for the price!</t>
+  </si>
+  <si>
+    <t>Came here last minute needing a room and saw that this place had decent reviews, and was located near the Galleria. Sweet. When I got into the room I was pretty shocked at how nice the place was considering the price of the room. The room is a very nice size, has lcd which is on a wall stand that you can pull out, nice bathroom. The bed is really nice and comfortable as well. Nothing bad to say!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Marilda D, General Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded March 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2013</t>
+  </si>
+  <si>
+    <t>Came here last minute needing a room and saw that this place had decent reviews, and was located near the Galleria. Sweet. When I got into the room I was pretty shocked at how nice the place was considering the price of the room. The room is a very nice size, has lcd which is on a wall stand that you can pull out, nice bathroom. The bed is really nice and comfortable as well. Nothing bad to say!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r152565997-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -933,12 +1452,6 @@
   </si>
   <si>
     <t>I stayed in the Candlewood Galleria during february on business having stayed in this hotel for the last 4 years. Reasonably priced rooms which for the 1 bedroom suite I stayed in was fully refurbished to include new furniture, bathroom and flat panel tvs. Very clean and comfortable indeed. Add in the honesty based Candlewood cupboard (drinks, snacks &amp; microwave meals) and a decent gym. Front desk staff were very pleasant and helpful. Plenty car parking. Located where the 59 freeway meets the 610 south loop so very easy to get places, including the Galleria mall which is 5 mins away by car.My only complaint is that the wifi (which is free) is simply too slow, so for example cannot support good quality skype video calls. This needs to be addressed as in my opinion is the only blemish on an otherwise excellent hotel.MoreShow less</t>
-  </si>
-  <si>
-    <t>Marilda D, General Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded March 19, 2013</t>
-  </si>
-  <si>
-    <t>Responded March 19, 2013</t>
   </si>
   <si>
     <t>I stayed in the Candlewood Galleria during february on business having stayed in this hotel for the last 4 years. Reasonably priced rooms which for the 1 bedroom suite I stayed in was fully refurbished to include new furniture, bathroom and flat panel tvs. Very clean and comfortable indeed. Add in the honesty based Candlewood cupboard (drinks, snacks &amp; microwave meals) and a decent gym. Front desk staff were very pleasant and helpful. Plenty car parking. Located where the 59 freeway meets the 610 south loop so very easy to get places, including the Galleria mall which is 5 mins away by car.My only complaint is that the wifi (which is free) is simply too slow, so for example cannot support good quality skype video calls. This needs to be addressed as in my opinion is the only blemish on an otherwise excellent hotel.More</t>
@@ -961,9 +1474,6 @@
 One thing I did like was that I was given a "goody bag" upon checking in. It was given to me because I am a member of Priority Club. It had a toothpaste sampler, bag of cookies, bag of peanuts,...If you arrive at Candlewood Suites after 11:00pm, you are expected to walk into a very small lobby, look on the wall that has lock boxes on it. Look up your last name and it corresponds with the lock box that has your room key in it. Kinda strange but doable. Then you find out that maid service only happens once a week. Yep. That's it. Once a week. On Fridays. You are allowed to swap out your dirty linen and towels for fresh ones but you must strip the bed yourself and carry your dirty linen and towels down to the office. Then the lady behind the desk will take your dirty stuff and throw it into the back room. Then she goes back and presumably collects up clean versions of the items that were just turned in. This place does not have a pool but it does have a nice gym. The "suite" part of the name is a bit misleading. It is a small room with a full kitchen with your own ice maker. Now that's cool. It also has a nice 42" HD TV and a lounge chair that is much too big for the room.One thing I did like was that I was given a "goody bag" upon checking in. It was given to me because I am a member of Priority Club. It had a toothpaste sampler, bag of cookies, bag of peanuts, a nasal thing you use to stop snoring and I think that was it but still pretty cool.My main complaints are that the toilets are too low and the water too high. Your hand gets wet when you don't want it to be (if you know what I mean). Another bad thing is the location. There is nothing around it. Ok, there is a Subway about a block away. That's about it. There is a Home Depot directly across the street.Another thing that bugged me was when ever I had to call the office (wakeup call, etc) it took a long time for them to answer the phone. I mean each and every time I called I had to wait a long time for them to pick up. Really busy maybe?My last complaint is the water pressure. This seems to be a problem at a lot of the standard fare hotels. It just pisses me off because it takes twice as long to take a shower. No bueno.Other then that, the bed is not bad, very nice kitchen, and pretty quiet. Close to freeway, free parking. That's about it.MoreShow less</t>
   </si>
   <si>
-    <t>January 2013</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded February 3, 2013</t>
   </si>
   <si>
@@ -996,6 +1506,39 @@
     <t>For anyone that has had to stay in the Galleria area, you will know you are hard pressed to find any hotel for under $185/night and that is what makes the Candlewood Suites such a great value.I had never stayed in a CS before and was pleasantly surprised.  My room was very clean and modern.  The bedroom/bath were spacious, large work area, cute little kitchen.  Downsides were the towels (very rough) and the newish carpet was coming up in places and needed some work and the appliances in the kitchen were old, which was a shame because they seemed to have remodeled everything else.  It was also very quiet, which was greatUnlike some other chain hotels in this price range, they do not provide a free breakfast. That was ok by me, I just bought a yougurt and oatmeal cup from their little shop, total cost $1.75 There was no fruit in the shop, which was unfortunate but all the food items were very reasonably priced.I did not use the gym, but it looked ok.  The other issue is you are far enough from the galleria you will not be able to walk to any restaurants for dinner, but it an easy car ride awayMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r142091830-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142091830</t>
+  </si>
+  <si>
+    <t>10/05/2012</t>
+  </si>
+  <si>
+    <t>GREAT VALUE! EXCELLENT SERVICE! NICE ROOMS!</t>
+  </si>
+  <si>
+    <t>I stay here every 3 weeks or so &amp; EVERY time I come I get excellent customer service. They recently did a major renovation &amp; rooms are awesome! This is truly the best value in the area. I highly recommend this hotel to anyone staying for a long OR short time in Houston. I will continue to stay here every time I come to Houston...I love this hotel :)</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r141947981-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141947981</t>
+  </si>
+  <si>
+    <t>10/03/2012</t>
+  </si>
+  <si>
+    <t>You Get What You Pay For</t>
+  </si>
+  <si>
+    <t>Pros:- cheap-close to galleria area- beds are comfortableCons:- Front Desk clerks are for the most part friendly but you have to catch on them on right day- Wireless is awful- towels are rough- some of the hotel neads work ( hallways, etc)</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r139727559-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1599,51 @@
     <t>I stayed here for business for about 2 weeks in May.  Pros:- Cheap- Plentiful Laundry Machines- Near my officeCons:- The hotel has renovations going on 7 days per week, staying over a weekend in painful- The hotel is dirty and ill kept (I'm guessing the reason for th first bullet)- The TV in the bedroom is a joke- I was not asked for ID when my room key did not work (make sure your valuables are in the safe, wait there is no safe)- The towels feel like 80 grit sandpaper- cleaning is once per week (normal for candlewood)Maybe this place will be worth a try again when the renovations are completed but in the mean time avoid this place like the plague, its a dump in every sense of the word.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r126971022-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126971022</t>
+  </si>
+  <si>
+    <t>03/30/2012</t>
+  </si>
+  <si>
+    <t>Great Location, Clean, Needs an Update</t>
+  </si>
+  <si>
+    <t>I spent one night at this hotel.  The property located near the Galleria but not in the middle of the Galleria traffic - Off the beaten path.  Clean property that has older case goods, TV and decor that needs updating.  They knew I was a Priority Club Platinum member and provided me amenities to match my level of members (this does not always happen - even with Intercontinental).  The AC was strange because the thermostat on the wall did not actually control the ac and it was a little loud for me, which made for not so good nights sleep.  Would like to see it after the update.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r126744468-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126744468</t>
+  </si>
+  <si>
+    <t>03/27/2012</t>
+  </si>
+  <si>
+    <t>Upgrade me please!!</t>
+  </si>
+  <si>
+    <t>This hotel is in need of a facelift, which I remember reading is scheduled to begin April 2012. I would definitely plan to stay here once the renovations are completed. No housekeeping for weekend stays, fresh towels &amp; linens are at the front desk. Front desk service was horrible, but the distance to downtown is less than a 10 minute drive. Not staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded April 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is in need of a facelift, which I remember reading is scheduled to begin April 2012. I would definitely plan to stay here once the renovations are completed. No housekeeping for weekend stays, fresh towels &amp; linens are at the front desk. Front desk service was horrible, but the distance to downtown is less than a 10 minute drive. Not staying here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r125249797-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1701,45 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r117359225-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117359225</t>
+  </si>
+  <si>
+    <t>08/28/2011</t>
+  </si>
+  <si>
+    <t>Great location. Good for a business Trip</t>
+  </si>
+  <si>
+    <t>I stayed here for a couple of weeks during a business trip. Good value for money. The location is convenient for those with work in Galleria area. Even downtown Houston is easily accessible. The property is not new but comparable to other Candlewood suites that I have stayed at.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r117235610-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117235610</t>
+  </si>
+  <si>
+    <t>08/25/2011</t>
+  </si>
+  <si>
+    <t>Lots of small annoyances</t>
+  </si>
+  <si>
+    <t>I stayed here March 31st- April 5th. I stayed in room 139 and found that were a myrid of small annoyances. The first one was the room door and the "swinging" lock,(the one you put over the little ball) did not line up properly so the door was not totally double locked. The second thing was that the bathroom door was not hung properly. When open, the door would swing all the way open regardless of how little you tried to keep it open . The third thing was that the front door wasn't a smooth easy close. You had to put a little bit of effort behind it. The next thing is that the bathroom vanity was not aligned properly. This is the cabinet that holds the sink. On the toilet side side it was over hanging from the front causing a jagged edge. Then there was the phone book. There was A-L yellow pages in the room, but no M-L so you couldn't order pizza. The next item was that the kitchen faucet leaked more often then not fron the top. This is where the round circular top met the faucet on top. Next was the toilet seat was loose so it had to repositioned everytime you used it. Then there was a bent window screen which prevented you from wanting to open the window (with all the bugs in this part of the country). And the last...I stayed here March 31st- April 5th. I stayed in room 139 and found that were a myrid of small annoyances. The first one was the room door and the "swinging" lock,(the one you put over the little ball) did not line up properly so the door was not totally double locked. The second thing was that the bathroom door was not hung properly. When open, the door would swing all the way open regardless of how little you tried to keep it open . The third thing was that the front door wasn't a smooth easy close. You had to put a little bit of effort behind it. The next thing is that the bathroom vanity was not aligned properly. This is the cabinet that holds the sink. On the toilet side side it was over hanging from the front causing a jagged edge. Then there was the phone book. There was A-L yellow pages in the room, but no M-L so you couldn't order pizza. The next item was that the kitchen faucet leaked more often then not fron the top. This is where the round circular top met the faucet on top. Next was the toilet seat was loose so it had to repositioned everytime you used it. Then there was a bent window screen which prevented you from wanting to open the window (with all the bugs in this part of the country). And the last but not least was that the closet door did not shut tight..MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>I stayed here March 31st- April 5th. I stayed in room 139 and found that were a myrid of small annoyances. The first one was the room door and the "swinging" lock,(the one you put over the little ball) did not line up properly so the door was not totally double locked. The second thing was that the bathroom door was not hung properly. When open, the door would swing all the way open regardless of how little you tried to keep it open . The third thing was that the front door wasn't a smooth easy close. You had to put a little bit of effort behind it. The next thing is that the bathroom vanity was not aligned properly. This is the cabinet that holds the sink. On the toilet side side it was over hanging from the front causing a jagged edge. Then there was the phone book. There was A-L yellow pages in the room, but no M-L so you couldn't order pizza. The next item was that the kitchen faucet leaked more often then not fron the top. This is where the round circular top met the faucet on top. Next was the toilet seat was loose so it had to repositioned everytime you used it. Then there was a bent window screen which prevented you from wanting to open the window (with all the bugs in this part of the country). And the last...I stayed here March 31st- April 5th. I stayed in room 139 and found that were a myrid of small annoyances. The first one was the room door and the "swinging" lock,(the one you put over the little ball) did not line up properly so the door was not totally double locked. The second thing was that the bathroom door was not hung properly. When open, the door would swing all the way open regardless of how little you tried to keep it open . The third thing was that the front door wasn't a smooth easy close. You had to put a little bit of effort behind it. The next thing is that the bathroom vanity was not aligned properly. This is the cabinet that holds the sink. On the toilet side side it was over hanging from the front causing a jagged edge. Then there was the phone book. There was A-L yellow pages in the room, but no M-L so you couldn't order pizza. The next item was that the kitchen faucet leaked more often then not fron the top. This is where the round circular top met the faucet on top. Next was the toilet seat was loose so it had to repositioned everytime you used it. Then there was a bent window screen which prevented you from wanting to open the window (with all the bugs in this part of the country). And the last but not least was that the closet door did not shut tight..More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r117047909-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -1170,6 +1797,45 @@
     <t>I always enjoy the friendly staff and clean rooms when I stay at this hotel.  The location is convenient to many restaurants and shopping. Staff is also knowledgable with area attractions and offer good suggestions.   Whether business or personal, I will return.  The rooms are clean and the prices are reasonable for any budget.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r115403904-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115403904</t>
+  </si>
+  <si>
+    <t>07/15/2011</t>
+  </si>
+  <si>
+    <t>HOME AWAY FROM HOME</t>
+  </si>
+  <si>
+    <t>This is my home away from home hotel. The Candlewood Suites Galleria has a great location close to restaurants, downtown, and the Galleria area. The staff will make you feel like you are part of the family. I often check-in early and my room is always ready. If going to Relaint Stadium this is the perfect place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r115054805-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115054805</t>
+  </si>
+  <si>
+    <t>07/05/2011</t>
+  </si>
+  <si>
+    <t>If you plan to stay here, leave your car at home or you will run the risk of walking home</t>
+  </si>
+  <si>
+    <t>I came to visit a family member here and my car was broken into. While in the parking lot trying to assess the damage to my vehicle, I noticed another car in the parking lot sitting on blocks. It had all four wheels taken off. After speaking to some other guests, I found out that this seems to be just a typical night at the Candlewood Suites Galleria. I called and spoke with the manager about the break in, she had the "i could care less" attitude and gave me an unheartfelt apology. When I inquired about why there was no video survellience of the parking lot, she told me that would require someone to watch the monitor. WHAT IS SO BAD ABOUT THAT??????? I guess the safety of your guests and their belongings isn't worth the $8.50 per hour you could pay someone to monitor the parking lot. Oh well, I know where I won't be staying anymore and if you don't mind having your car broken into, and then reporting it to management that doesn't give a damn, then I strongly recommend staying at the Candlewood Suites Houston Galleria.MoreShow less</t>
+  </si>
+  <si>
+    <t>candlewoodgalleria, Director of Sales at Candlewood Suites Houston by the Galleria, responded to this reviewResponded July 8, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2011</t>
+  </si>
+  <si>
+    <t>I came to visit a family member here and my car was broken into. While in the parking lot trying to assess the damage to my vehicle, I noticed another car in the parking lot sitting on blocks. It had all four wheels taken off. After speaking to some other guests, I found out that this seems to be just a typical night at the Candlewood Suites Galleria. I called and spoke with the manager about the break in, she had the "i could care less" attitude and gave me an unheartfelt apology. When I inquired about why there was no video survellience of the parking lot, she told me that would require someone to watch the monitor. WHAT IS SO BAD ABOUT THAT??????? I guess the safety of your guests and their belongings isn't worth the $8.50 per hour you could pay someone to monitor the parking lot. Oh well, I know where I won't be staying anymore and if you don't mind having your car broken into, and then reporting it to management that doesn't give a damn, then I strongly recommend staying at the Candlewood Suites Houston Galleria.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r114964382-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -1218,6 +1884,54 @@
     <t>The hotel was clean and the staff was very helpful. The rooms are comfortable and quite. A good buy when compared to other hotels in the area. Hotel is just down the road from some good restaurants. Nothing fancy, but I had a great stay and will stay here again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r109121817-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>109121817</t>
+  </si>
+  <si>
+    <t>05/20/2011</t>
+  </si>
+  <si>
+    <t>GREAT WE LOVED IT!!!</t>
+  </si>
+  <si>
+    <t>the hotel was great so was the staff me and my friends loved it, we will be coming back here the next time were in town. the room was clean, relaxing, water was great, and location was great we all loved it.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>candlewoodgalleria, Director of Sales at Candlewood Suites Houston by the Galleria, responded to this reviewResponded June 9, 2011</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2011</t>
+  </si>
+  <si>
+    <t>the hotel was great so was the staff me and my friends loved it, we will be coming back here the next time were in town. the room was clean, relaxing, water was great, and location was great we all loved it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r92483669-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>92483669</t>
+  </si>
+  <si>
+    <t>01/10/2011</t>
+  </si>
+  <si>
+    <t>Stay somewhere else</t>
+  </si>
+  <si>
+    <t>This would be a nice place to stay except for the cold showers and trash build up outside by the side entrances to the building. I mention the side entrances because we had to use them after 11 P.M. because the front door was looked and the card reader was broken. The night shift desk clerks opened the door the first night, but posted a sign instructing guest to use the other entrances the other two nights I was there. The first room we were given did not lock when we shut the door. I have a habit or checking the door when I close it when I stay at hotel, and the door opened with easy. We requested another room 10 mins after checking in. The 3rd floor smells like smoke even though some rooms are non-smoking (requested another room part 2). It's an extended stay, but the maid didn't visit our room to do ANYTHING the whole time we were guest. We had to constantly go downstairs for towels. The daytime staff are very friendly, but the nightshift lady is rude and nonchalant. it was a good deal for New Year's, but I will pay for peace of mind next time I'm in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>This would be a nice place to stay except for the cold showers and trash build up outside by the side entrances to the building. I mention the side entrances because we had to use them after 11 P.M. because the front door was looked and the card reader was broken. The night shift desk clerks opened the door the first night, but posted a sign instructing guest to use the other entrances the other two nights I was there. The first room we were given did not lock when we shut the door. I have a habit or checking the door when I close it when I stay at hotel, and the door opened with easy. We requested another room 10 mins after checking in. The 3rd floor smells like smoke even though some rooms are non-smoking (requested another room part 2). It's an extended stay, but the maid didn't visit our room to do ANYTHING the whole time we were guest. We had to constantly go downstairs for towels. The daytime staff are very friendly, but the nightshift lady is rude and nonchalant. it was a good deal for New Year's, but I will pay for peace of mind next time I'm in Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r68972704-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -1236,12 +1950,6 @@
     <t>November 2009</t>
   </si>
   <si>
-    <t>candlewoodgalleria, Director of Sales at Candlewood Suites Houston by the Galleria, responded to this reviewResponded June 9, 2011</t>
-  </si>
-  <si>
-    <t>Responded June 9, 2011</t>
-  </si>
-  <si>
     <t>There were limited reviews prior to my booking, but decided to take the chance due to the en-suite kitchen. We were traveling with our 3-1/2 yr old daughter so we needed to be able to prepare food for her, and ourselves. The first room we got smelled of paint, and the carpet under and around the air conditioner was damp. We got there about 7pm, and promptly went and told the front desk about the room, and they moved us to another room a few minutes later. The remainder of the stay was fine. The area and hotel was quiet. There wasn't a pool, but we weren't getting in a pool at 60°F in Houston! The room was good enough for our needs, but the one king sized bed was almost just enough for the three of us. The complimentary internet access was good too. Overall, our first impression was not good, but after we got our room changed, it was quite acceptable.More</t>
   </si>
   <si>
@@ -1290,6 +1998,57 @@
     <t>After reading previous reviews, I was concerned before i check-in. But it was all good.You need the room key to enter the hotel after 10pm, which is good for security and i found no issue at the parking lot.The staff are friendly and explain the hotel info before i go to my room, even show me how to operate the free washing machine, which was GREAT to me. i just can't let myself spend the money in the 5 star hotel for expensive laundry.The room is big and with kitchen. I found the mircowave is very useful to cook some food at night. The only 2 issues i have with the room is the smell (think is from the air-con) and the noise of the air-con.The location is not bad too, close to galleria and you can easily get to other places.With the price, this is a very nice hotel to me.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r36641131-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>36641131</t>
+  </si>
+  <si>
+    <t>08/03/2009</t>
+  </si>
+  <si>
+    <t>This hotel has a great location, friendly staff, and clean rooms.</t>
+  </si>
+  <si>
+    <t>I don't understand how the previous reviews are so bad. I almost canceled my reservation because of  them and then decided to give the hotel a try. I was very pleasantly surprised when I arrived. The room was clean, the AC was cold and the bathroom was spotless. The bathroom vanity was worn in areas but it did not interfere with its use. No problem with hot water or pressure, we had all that we could handle. The suite provided us with 2 TV's with cable, 2 closets, clean dishes, microwave, dishwasher and stove.  Easy to get to the Galleria and surrounding area (HEB on Westheimer), Reliant Stadium, Minute Maid Park and the Museum District. Our family will be back for our next stay in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>candlewoodgalleria, Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded June 15, 2011</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2011</t>
+  </si>
+  <si>
+    <t>I don't understand how the previous reviews are so bad. I almost canceled my reservation because of  them and then decided to give the hotel a try. I was very pleasantly surprised when I arrived. The room was clean, the AC was cold and the bathroom was spotless. The bathroom vanity was worn in areas but it did not interfere with its use. No problem with hot water or pressure, we had all that we could handle. The suite provided us with 2 TV's with cable, 2 closets, clean dishes, microwave, dishwasher and stove.  Easy to get to the Galleria and surrounding area (HEB on Westheimer), Reliant Stadium, Minute Maid Park and the Museum District. Our family will be back for our next stay in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r36191243-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>36191243</t>
+  </si>
+  <si>
+    <t>07/29/2009</t>
+  </si>
+  <si>
+    <t>Cheap and Cheery</t>
+  </si>
+  <si>
+    <t>This place will never make you forget the Ritz-Carlton, but the staff is conscientious and friendly.  Care and maintenance have been improved.  Given the location, it's a really good value,MoreShow less</t>
+  </si>
+  <si>
+    <t>candlewoodgalleria, Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded June 16, 2011</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2011</t>
+  </si>
+  <si>
+    <t>This place will never make you forget the Ritz-Carlton, but the staff is conscientious and friendly.  Care and maintenance have been improved.  Given the location, it's a really good value,More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r26995266-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -1329,12 +2088,6 @@
     <t>October 2008</t>
   </si>
   <si>
-    <t>candlewoodgalleria, Manager at Candlewood Suites Houston by the Galleria, responded to this reviewResponded June 16, 2011</t>
-  </si>
-  <si>
-    <t>Responded June 16, 2011</t>
-  </si>
-  <si>
     <t>I had stayed at this hotel during a previous business trip and had a decent stay so I booked it again. However this stay was nothing like the first. First it took awhile to check in because there were printer problems. Then when I got in the room I was overwhelmed by this minty fragrance. It was way too strong and a scent that reminded me of taking too many Peppermint Schnapps shots. The rooms were not very clean especially the floors. I was not provided with any washclothes, just bath towels and hand towels. I will not be staying there again.More</t>
   </si>
   <si>
@@ -1359,6 +2112,45 @@
     <t>I am in hotels at least 10 days a month.  The only reason I liked staying at this hotel is because of the C/D player, DVD player and kitchen area. But I always have a problem with this hotel.  It is never a smooth reservation or accomodation. Many, many times I have booked a 2 room suite online but upon arrival at the hotel, no suites are available and the staff makes no apology for the situation.  The water pressure is always low,  the bathroom is dark and dingy.  The clock doesn't work, the C/D player not in the room. It's always something!!!!Although the location is convenient, I HATE THIS PLACE. As long as this manager remains, I WILL NEVER STAY HERE!!!!!IMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r14754758-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>14754758</t>
+  </si>
+  <si>
+    <t>04/02/2008</t>
+  </si>
+  <si>
+    <t>Horrible Facility</t>
+  </si>
+  <si>
+    <t>This is the WORST facility I have satyed at. There is NO water in the showers in the morning- and yet in the night- you can not turn water off. The Air Conditioner did not work, curtains were falling off the rods, drawers falling off. The bathroom was OLD and dirty. Facility needs UPDATING and cleaning. When I reported people smoking on the NON smoking rooms sections- all the staff could say was SORRY. They NEVER tried to rectify any problems. MANY guests were complaining. The Manager in the day- NEVER turned his back around to face people- just let his day desk staff hear problems. NOT a safe parking lot either.I complained to the desk people and even called their 800 number. NO one has done anything- and I was charged a HIGHER rate than I was quoted by phone- or saw on the internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>This is the WORST facility I have satyed at. There is NO water in the showers in the morning- and yet in the night- you can not turn water off. The Air Conditioner did not work, curtains were falling off the rods, drawers falling off. The bathroom was OLD and dirty. Facility needs UPDATING and cleaning. When I reported people smoking on the NON smoking rooms sections- all the staff could say was SORRY. They NEVER tried to rectify any problems. MANY guests were complaining. The Manager in the day- NEVER turned his back around to face people- just let his day desk staff hear problems. NOT a safe parking lot either.I complained to the desk people and even called their 800 number. NO one has done anything- and I was charged a HIGHER rate than I was quoted by phone- or saw on the internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r14302785-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>14302785</t>
+  </si>
+  <si>
+    <t>03/15/2008</t>
+  </si>
+  <si>
+    <t>Down, down, down the tubes</t>
+  </si>
+  <si>
+    <t>1) Parking problems seem to have improved overall, but during Houston's second Halloween, Rodeo, people park on top of each other.2) NO HOT WATER, then NO WATER PRESSURE3) NOISY ON WEEKENDS - No manager on duty. 4) Needs a lot of work to justify the price; better to stay further out, pay less, and get better environmentMoreShow less</t>
+  </si>
+  <si>
+    <t>1) Parking problems seem to have improved overall, but during Houston's second Halloween, Rodeo, people park on top of each other.2) NO HOT WATER, then NO WATER PRESSURE3) NOISY ON WEEKENDS - No manager on duty. 4) Needs a lot of work to justify the price; better to stay further out, pay less, and get better environmentMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r14000273-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
   </si>
   <si>
@@ -1374,9 +2166,6 @@
     <t>The Candlewood Suites chain has good beds and decent value, but terrible service at this hotel made the stay terrible. I had  a toilet in the first room that didn't work and a shower that didn't work right in the 2nd room and had stuff thrown out from the first room. The personnel were unfriendly and unhelpful since managers only work M-F and not at all on weekends. The maintenance seems lax at this hotel and the rooms need more refurbishing..new cabinets for example, though the carpeting looked new.MoreShow less</t>
   </si>
   <si>
-    <t>March 2008</t>
-  </si>
-  <si>
     <t>debrabjohnson, Director of Sales at Candlewood Suites Houston by the Galleria, responded to this reviewResponded May 8, 2008</t>
   </si>
   <si>
@@ -1420,6 +2209,45 @@
   </si>
   <si>
     <t>This was our first experience with Candlewood Suites.  The washer/dryer Cupboard area was a welcome ammenity for us after a four day road trip.  I am sorry to hear a previous tripster had a very bad experience, but we had quite the opposite.  We washed/dryed clothes without incident and I was quite amazed at the whole "honor system" setup in the Cupboard area.  Our room was spacious, clean with full kitchen setup.  Restaurant leftovers went into the fridge and we made full use of the coffee pot and microwave appliances.  A real bargin for the money!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r5442986-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5442986</t>
+  </si>
+  <si>
+    <t>07/08/2006</t>
+  </si>
+  <si>
+    <t>Our first clue to STAY AWAY........</t>
+  </si>
+  <si>
+    <t>...should have been the police cars and gang fight going on out front when we drove up.  However, it was really late and we had guaranteed our late arrival, so we ignored our better judgment and checked in. My room had a huge, scary stain on the carpet that looked like someone had been murdered there (I'm serious).  The hotel desk clerk was nice about giving me another room, but didn't seem to really care that my first room was truly foul.  Management that would allow a room to be rented out in that condition--when the hotel was not full and there were other rooms available--simply does not care.  Also, when I went down to change rooms there was a metal shutter over the lobby desk which, along with the possible murder stain on my carpet and the police cars out front, made me question my safety. My friend's room had a funky odor--we thought they might have stashed the body under the bed after the murder in my room.  Seriously, it was not good---do yourself a favor and go somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>...should have been the police cars and gang fight going on out front when we drove up.  However, it was really late and we had guaranteed our late arrival, so we ignored our better judgment and checked in. My room had a huge, scary stain on the carpet that looked like someone had been murdered there (I'm serious).  The hotel desk clerk was nice about giving me another room, but didn't seem to really care that my first room was truly foul.  Management that would allow a room to be rented out in that condition--when the hotel was not full and there were other rooms available--simply does not care.  Also, when I went down to change rooms there was a metal shutter over the lobby desk which, along with the possible murder stain on my carpet and the police cars out front, made me question my safety. My friend's room had a funky odor--we thought they might have stashed the body under the bed after the murder in my room.  Seriously, it was not good---do yourself a favor and go somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107930-r4146925-Candlewood_Suites_Houston_by_the_Galleria-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4146925</t>
+  </si>
+  <si>
+    <t>11/26/2005</t>
+  </si>
+  <si>
+    <t>Exceptional</t>
+  </si>
+  <si>
+    <t>I booked this hotel on Hotwire so I got a great price on the room. I was hesitant at first, because it wasn't in the Galleria.  The room was nice and roomy and very clean. Rooms only come with Queen Bed which was fine for me.  Walls maybe a little thin as I could hear people coming down the hallway, but I'm not a light sleeper so didn't really bother me too much. There is no desk service after a certain hour, at least no one was there when I came in after midnight and the shutters were pulled, this was on both nights I was there. There is only weekly housecleaning.For a 2-star hotel it was much nicer than expected. I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel on Hotwire so I got a great price on the room. I was hesitant at first, because it wasn't in the Galleria.  The room was nice and roomy and very clean. Rooms only come with Queen Bed which was fine for me.  Walls maybe a little thin as I could hear people coming down the hallway, but I'm not a light sleeper so didn't really bother me too much. There is no desk service after a certain hour, at least no one was there when I came in after midnight and the shutters were pulled, this was on both nights I was there. There is only weekly housecleaning.For a 2-star hotel it was much nicer than expected. I would stay again.More</t>
   </si>
 </sst>
 </file>
@@ -1954,7 +2782,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1962,17 +2790,15 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1980,7 +2806,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1996,7 +2822,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -2005,10 +2831,10 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -2017,37 +2843,27 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -2063,52 +2879,54 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
       </c>
-      <c r="P4" t="s"/>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" t="s">
-        <v>71</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -2124,7 +2942,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2133,43 +2951,49 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>73</v>
+      </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +3009,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2194,43 +3018,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -2246,34 +3070,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
         <v>88</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>89</v>
       </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>86</v>
-      </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2287,7 +3111,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -2303,54 +3127,44 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
         <v>94</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>98</v>
-      </c>
       <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" t="s">
-        <v>93</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -2366,42 +3180,40 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>100</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="O9" t="s">
         <v>101</v>
       </c>
-      <c r="J9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>105</v>
-      </c>
-      <c r="O9" t="s">
-        <v>93</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -2413,7 +3225,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -2429,43 +3241,41 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
         <v>107</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>108</v>
       </c>
-      <c r="J10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>112</v>
-      </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -2476,7 +3286,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -2492,54 +3302,48 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
         <v>113</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>114</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
         <v>115</v>
       </c>
-      <c r="K11" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s">
-        <v>117</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O11" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
@@ -2555,58 +3359,54 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
         <v>119</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>120</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
         <v>121</v>
       </c>
-      <c r="K12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>124</v>
-      </c>
       <c r="O12" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>125</v>
-      </c>
-      <c r="X12" t="s">
-        <v>126</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -2622,7 +3422,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2631,49 +3431,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
       </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>133</v>
-      </c>
-      <c r="X13" t="s">
-        <v>134</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -2689,7 +3483,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2698,49 +3492,45 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>142</v>
-      </c>
-      <c r="X14" t="s">
-        <v>143</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
@@ -2756,7 +3546,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2765,49 +3555,45 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>151</v>
-      </c>
-      <c r="X15" t="s">
-        <v>152</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
@@ -2823,7 +3609,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2832,35 +3618,45 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>101</v>
+      </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -2876,7 +3672,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2885,47 +3681,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="O17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="X17" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
@@ -2941,7 +3739,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2950,47 +3748,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>3</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="X18" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="Y18" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
@@ -3006,7 +3800,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3015,43 +3809,45 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>79</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
         <v>166</v>
-      </c>
-      <c r="X19" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="20">
@@ -3067,7 +3863,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3076,47 +3872,49 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="O20" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="X20" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="Y20" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
@@ -3132,7 +3930,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3141,49 +3939,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="O21" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="X21" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
@@ -3199,7 +3997,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3208,43 +4006,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X22" t="s">
+        <v>192</v>
+      </c>
       <c r="Y22" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
@@ -3260,7 +4058,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3269,45 +4067,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="O23" t="s">
-        <v>79</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>3</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X23" t="s">
+        <v>202</v>
+      </c>
       <c r="Y23" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
@@ -3323,7 +4119,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3332,39 +4128,49 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J24" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>208</v>
+      </c>
+      <c r="X24" t="s">
+        <v>209</v>
+      </c>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
@@ -3380,7 +4186,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3389,39 +4195,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="J25" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>217</v>
+      </c>
+      <c r="X25" t="s">
+        <v>218</v>
+      </c>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
@@ -3437,7 +4253,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3446,26 +4262,22 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
-      <c r="N26" t="s">
-        <v>230</v>
-      </c>
-      <c r="O26" t="s">
-        <v>53</v>
-      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
@@ -3478,7 +4290,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
@@ -3494,7 +4306,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3503,53 +4315,45 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J27" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="O27" t="s">
-        <v>79</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="n">
         <v>5</v>
       </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>237</v>
-      </c>
-      <c r="X27" t="s">
-        <v>238</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
@@ -3565,7 +4369,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3574,42 +4378,32 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="O28" t="s">
-        <v>79</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
@@ -3620,7 +4414,7 @@
         <v>238</v>
       </c>
       <c r="Y28" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29">
@@ -3636,7 +4430,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3645,53 +4439,47 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="X29" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Y29" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30">
@@ -3707,7 +4495,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3716,53 +4504,47 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="J30" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K30" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2</v>
-      </c>
-      <c r="S30" t="n">
         <v>3</v>
       </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="X30" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Y30" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
@@ -3778,7 +4560,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3787,49 +4569,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J31" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K31" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>246</v>
+      </c>
+      <c r="X31" t="s">
+        <v>247</v>
+      </c>
       <c r="Y31" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
@@ -3845,7 +4621,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3854,49 +4630,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J32" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="O32" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>269</v>
+      </c>
+      <c r="X32" t="s">
+        <v>270</v>
+      </c>
       <c r="Y32" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33">
@@ -3912,7 +4688,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3921,53 +4697,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J33" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="O33" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
         <v>3</v>
       </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="X33" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="Y33" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34">
@@ -3983,7 +4755,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3992,53 +4764,47 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J34" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K34" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="O34" t="s">
-        <v>190</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="n">
         <v>3</v>
       </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="X34" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Y34" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35">
@@ -4054,7 +4820,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4063,49 +4829,49 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J35" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L35" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>268</v>
+      </c>
+      <c r="O35" t="s">
+        <v>200</v>
+      </c>
       <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="X35" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="Y35" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36">
@@ -4121,7 +4887,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4130,53 +4896,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="J36" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K36" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="O36" t="s">
-        <v>79</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>308</v>
-      </c>
-      <c r="X36" t="s">
-        <v>309</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37">
@@ -4192,7 +4948,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4201,49 +4957,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="J37" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="K37" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="L37" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="O37" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>306</v>
+      </c>
+      <c r="X37" t="s">
+        <v>307</v>
+      </c>
       <c r="Y37" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38">
@@ -4259,7 +5015,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4268,41 +5024,37 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="J38" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="K38" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="L38" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="O38" t="s">
-        <v>79</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4310,7 +5062,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39">
@@ -4326,7 +5078,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4335,41 +5087,37 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J39" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="K39" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="L39" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4377,7 +5125,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40">
@@ -4393,7 +5141,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4402,53 +5150,39 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="J40" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="K40" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="L40" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="O40" t="s">
-        <v>79</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>3</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>335</v>
-      </c>
-      <c r="X40" t="s">
-        <v>336</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41">
@@ -4464,7 +5198,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4473,49 +5207,39 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="J41" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="K41" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="O41" t="s">
-        <v>93</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>1</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42">
@@ -4531,7 +5255,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4540,49 +5264,43 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="J42" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="K42" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="L42" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="O42" t="s">
-        <v>79</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>339</v>
+      </c>
+      <c r="X42" t="s">
+        <v>340</v>
+      </c>
       <c r="Y42" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43">
@@ -4598,7 +5316,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4607,43 +5325,49 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="J43" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="K43" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="O43" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="P43" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44">
@@ -4659,7 +5383,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4668,45 +5392,39 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="J44" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="K44" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="O44" t="s">
         <v>53</v>
       </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45">
@@ -4722,7 +5440,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4731,33 +5449,37 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="J45" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="K45" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="L45" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="O45" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
       <c r="S45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
@@ -4766,10 +5488,14 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>360</v>
+      </c>
+      <c r="X45" t="s">
+        <v>361</v>
+      </c>
       <c r="Y45" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46">
@@ -4785,7 +5511,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4794,39 +5520,53 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="J46" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K46" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>360</v>
+      </c>
+      <c r="X46" t="s">
+        <v>361</v>
+      </c>
       <c r="Y46" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47">
@@ -4842,7 +5582,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4851,45 +5591,53 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="J47" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="K47" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="O47" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
       <c r="S47" t="n">
         <v>4</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>374</v>
+      </c>
+      <c r="X47" t="s">
+        <v>375</v>
+      </c>
       <c r="Y47" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48">
@@ -4905,50 +5653,56 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
+        <v>377</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>378</v>
+      </c>
+      <c r="J48" t="s">
+        <v>379</v>
+      </c>
+      <c r="K48" t="s">
+        <v>380</v>
+      </c>
+      <c r="L48" t="s">
         <v>381</v>
       </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
         <v>382</v>
       </c>
-      <c r="J48" t="s">
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
         <v>383</v>
       </c>
-      <c r="K48" t="s">
+      <c r="X48" t="s">
         <v>384</v>
       </c>
-      <c r="L48" t="s">
-        <v>385</v>
-      </c>
-      <c r="M48" t="n">
-        <v>4</v>
-      </c>
-      <c r="N48" t="s">
-        <v>386</v>
-      </c>
-      <c r="O48" t="s">
-        <v>79</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
-      <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
-      <c r="V48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
       <c r="Y48" t="s">
         <v>385</v>
       </c>
@@ -4966,54 +5720,62 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
+        <v>386</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
         <v>387</v>
       </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>388</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>389</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>390</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
         <v>391</v>
       </c>
-      <c r="M49" t="n">
-        <v>4</v>
-      </c>
-      <c r="N49" t="s">
-        <v>362</v>
-      </c>
       <c r="O49" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="s"/>
-      <c r="R49" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>392</v>
+      </c>
+      <c r="X49" t="s">
+        <v>393</v>
+      </c>
       <c r="Y49" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50">
@@ -5029,7 +5791,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5038,53 +5800,53 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="J50" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K50" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="O50" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q50" t="n">
         <v>4</v>
       </c>
       <c r="R50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="X50" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Y50" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51">
@@ -5100,7 +5862,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5109,53 +5871,49 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="J51" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K51" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>407</v>
-      </c>
-      <c r="X51" t="s">
-        <v>408</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52">
@@ -5171,7 +5929,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5180,41 +5938,41 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J52" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K52" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L52" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="O52" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5222,7 +5980,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53">
@@ -5238,7 +5996,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5247,28 +6005,24 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="J53" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K53" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
-      <c r="N53" t="s">
-        <v>421</v>
-      </c>
-      <c r="O53" t="s">
-        <v>79</v>
-      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
         <v>3</v>
@@ -5281,19 +6035,19 @@
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="X53" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="Y53" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54">
@@ -5309,7 +6063,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5318,51 +6072,49 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="J54" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K54" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L54" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="O54" t="s">
-        <v>79</v>
-      </c>
-      <c r="P54" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>429</v>
-      </c>
-      <c r="X54" t="s">
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
         <v>430</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="55">
@@ -5399,41 +6151,41 @@
         <v>436</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="O55" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q55" t="n">
         <v>3</v>
       </c>
       <c r="R55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="X55" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="Y55" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56">
@@ -5449,7 +6201,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5458,53 +6210,53 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J56" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K56" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L56" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="P56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="n">
         <v>3</v>
       </c>
       <c r="R56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="X56" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Y56" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57">
@@ -5520,7 +6272,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5529,51 +6281,53 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J57" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K57" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L57" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O57" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="P57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
         <v>4</v>
       </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S57" t="n">
         <v>4</v>
       </c>
       <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="X57" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="Y57" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58">
@@ -5589,7 +6343,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5598,45 +6352,2721 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="J58" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K58" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L58" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
-      </c>
-      <c r="N58" t="s"/>
-      <c r="O58" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>463</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>464</v>
+      </c>
+      <c r="X58" t="s">
+        <v>465</v>
+      </c>
       <c r="Y58" t="s">
-        <v>459</v>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>467</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>468</v>
+      </c>
+      <c r="J59" t="s">
+        <v>469</v>
+      </c>
+      <c r="K59" t="s">
+        <v>470</v>
+      </c>
+      <c r="L59" t="s">
+        <v>471</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>464</v>
+      </c>
+      <c r="X59" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>473</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>474</v>
+      </c>
+      <c r="J60" t="s">
+        <v>475</v>
+      </c>
+      <c r="K60" t="s">
+        <v>476</v>
+      </c>
+      <c r="L60" t="s">
+        <v>477</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>463</v>
+      </c>
+      <c r="O60" t="s">
+        <v>101</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>478</v>
+      </c>
+      <c r="X60" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>481</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>482</v>
+      </c>
+      <c r="J61" t="s">
+        <v>483</v>
+      </c>
+      <c r="K61" t="s">
+        <v>484</v>
+      </c>
+      <c r="L61" t="s">
+        <v>485</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>486</v>
+      </c>
+      <c r="O61" t="s">
+        <v>101</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>488</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>489</v>
+      </c>
+      <c r="J62" t="s">
+        <v>490</v>
+      </c>
+      <c r="K62" t="s">
+        <v>491</v>
+      </c>
+      <c r="L62" t="s">
+        <v>492</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>493</v>
+      </c>
+      <c r="O62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>494</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>495</v>
+      </c>
+      <c r="J63" t="s">
+        <v>496</v>
+      </c>
+      <c r="K63" t="s">
+        <v>497</v>
+      </c>
+      <c r="L63" t="s">
+        <v>498</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>499</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>500</v>
+      </c>
+      <c r="J64" t="s">
+        <v>501</v>
+      </c>
+      <c r="K64" t="s">
+        <v>502</v>
+      </c>
+      <c r="L64" t="s">
+        <v>503</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>504</v>
+      </c>
+      <c r="O64" t="s">
+        <v>101</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>505</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>506</v>
+      </c>
+      <c r="J65" t="s">
+        <v>507</v>
+      </c>
+      <c r="K65" t="s">
+        <v>508</v>
+      </c>
+      <c r="L65" t="s">
+        <v>509</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>504</v>
+      </c>
+      <c r="O65" t="s">
+        <v>101</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>510</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>511</v>
+      </c>
+      <c r="J66" t="s">
+        <v>512</v>
+      </c>
+      <c r="K66" t="s">
+        <v>513</v>
+      </c>
+      <c r="L66" t="s">
+        <v>514</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>515</v>
+      </c>
+      <c r="O66" t="s">
+        <v>101</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>516</v>
+      </c>
+      <c r="X66" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>519</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>520</v>
+      </c>
+      <c r="J67" t="s">
+        <v>521</v>
+      </c>
+      <c r="K67" t="s">
+        <v>522</v>
+      </c>
+      <c r="L67" t="s">
+        <v>523</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>524</v>
+      </c>
+      <c r="O67" t="s">
+        <v>101</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>525</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>526</v>
+      </c>
+      <c r="J68" t="s">
+        <v>527</v>
+      </c>
+      <c r="K68" t="s">
+        <v>528</v>
+      </c>
+      <c r="L68" t="s">
+        <v>529</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>530</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>531</v>
+      </c>
+      <c r="X68" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>534</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>535</v>
+      </c>
+      <c r="J69" t="s">
+        <v>536</v>
+      </c>
+      <c r="K69" t="s">
+        <v>537</v>
+      </c>
+      <c r="L69" t="s">
+        <v>538</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>539</v>
+      </c>
+      <c r="O69" t="s">
+        <v>115</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>541</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>542</v>
+      </c>
+      <c r="J70" t="s">
+        <v>543</v>
+      </c>
+      <c r="K70" t="s">
+        <v>544</v>
+      </c>
+      <c r="L70" t="s">
+        <v>545</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>546</v>
+      </c>
+      <c r="O70" t="s">
+        <v>101</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>547</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>548</v>
+      </c>
+      <c r="J71" t="s">
+        <v>549</v>
+      </c>
+      <c r="K71" t="s">
+        <v>550</v>
+      </c>
+      <c r="L71" t="s">
+        <v>551</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>552</v>
+      </c>
+      <c r="O71" t="s">
+        <v>101</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>553</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>554</v>
+      </c>
+      <c r="J72" t="s">
+        <v>555</v>
+      </c>
+      <c r="K72" t="s">
+        <v>556</v>
+      </c>
+      <c r="L72" t="s">
+        <v>557</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>558</v>
+      </c>
+      <c r="O72" t="s">
+        <v>101</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>559</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>560</v>
+      </c>
+      <c r="J73" t="s">
+        <v>561</v>
+      </c>
+      <c r="K73" t="s">
+        <v>562</v>
+      </c>
+      <c r="L73" t="s">
+        <v>563</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>564</v>
+      </c>
+      <c r="O73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>566</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>567</v>
+      </c>
+      <c r="J74" t="s">
+        <v>568</v>
+      </c>
+      <c r="K74" t="s">
+        <v>569</v>
+      </c>
+      <c r="L74" t="s">
+        <v>570</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>571</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>573</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>574</v>
+      </c>
+      <c r="J75" t="s">
+        <v>575</v>
+      </c>
+      <c r="K75" t="s">
+        <v>576</v>
+      </c>
+      <c r="L75" t="s">
+        <v>577</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>578</v>
+      </c>
+      <c r="O75" t="s">
+        <v>101</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>580</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>581</v>
+      </c>
+      <c r="J76" t="s">
+        <v>582</v>
+      </c>
+      <c r="K76" t="s">
+        <v>583</v>
+      </c>
+      <c r="L76" t="s">
+        <v>584</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>578</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>585</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>586</v>
+      </c>
+      <c r="J77" t="s">
+        <v>587</v>
+      </c>
+      <c r="K77" t="s">
+        <v>588</v>
+      </c>
+      <c r="L77" t="s">
+        <v>589</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>578</v>
+      </c>
+      <c r="O77" t="s">
+        <v>101</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>590</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>591</v>
+      </c>
+      <c r="J78" t="s">
+        <v>592</v>
+      </c>
+      <c r="K78" t="s">
+        <v>593</v>
+      </c>
+      <c r="L78" t="s">
+        <v>594</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>578</v>
+      </c>
+      <c r="O78" t="s">
+        <v>71</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>595</v>
+      </c>
+      <c r="X78" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>598</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>599</v>
+      </c>
+      <c r="J79" t="s">
+        <v>600</v>
+      </c>
+      <c r="K79" t="s">
+        <v>601</v>
+      </c>
+      <c r="L79" t="s">
+        <v>602</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>571</v>
+      </c>
+      <c r="O79" t="s">
+        <v>101</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>603</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>604</v>
+      </c>
+      <c r="J80" t="s">
+        <v>605</v>
+      </c>
+      <c r="K80" t="s">
+        <v>606</v>
+      </c>
+      <c r="L80" t="s">
+        <v>607</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>608</v>
+      </c>
+      <c r="O80" t="s">
+        <v>101</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>609</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>610</v>
+      </c>
+      <c r="J81" t="s">
+        <v>611</v>
+      </c>
+      <c r="K81" t="s">
+        <v>612</v>
+      </c>
+      <c r="L81" t="s">
+        <v>613</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>571</v>
+      </c>
+      <c r="O81" t="s">
+        <v>101</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>614</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>615</v>
+      </c>
+      <c r="J82" t="s">
+        <v>616</v>
+      </c>
+      <c r="K82" t="s">
+        <v>617</v>
+      </c>
+      <c r="L82" t="s">
+        <v>618</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>619</v>
+      </c>
+      <c r="O82" t="s">
+        <v>200</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>620</v>
+      </c>
+      <c r="X82" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>623</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>624</v>
+      </c>
+      <c r="J83" t="s">
+        <v>625</v>
+      </c>
+      <c r="K83" t="s">
+        <v>626</v>
+      </c>
+      <c r="L83" t="s">
+        <v>627</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>628</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>620</v>
+      </c>
+      <c r="X83" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>630</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>631</v>
+      </c>
+      <c r="J84" t="s">
+        <v>632</v>
+      </c>
+      <c r="K84" t="s">
+        <v>633</v>
+      </c>
+      <c r="L84" t="s">
+        <v>634</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>635</v>
+      </c>
+      <c r="O84" t="s">
+        <v>115</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>620</v>
+      </c>
+      <c r="X84" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>637</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>638</v>
+      </c>
+      <c r="J85" t="s">
+        <v>639</v>
+      </c>
+      <c r="K85" t="s">
+        <v>640</v>
+      </c>
+      <c r="L85" t="s">
+        <v>641</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>642</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>643</v>
+      </c>
+      <c r="X85" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>646</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>647</v>
+      </c>
+      <c r="J86" t="s">
+        <v>648</v>
+      </c>
+      <c r="K86" t="s">
+        <v>649</v>
+      </c>
+      <c r="L86" t="s">
+        <v>650</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>635</v>
+      </c>
+      <c r="O86" t="s">
+        <v>101</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>652</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>653</v>
+      </c>
+      <c r="J87" t="s">
+        <v>654</v>
+      </c>
+      <c r="K87" t="s">
+        <v>655</v>
+      </c>
+      <c r="L87" t="s">
+        <v>656</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>657</v>
+      </c>
+      <c r="O87" t="s">
+        <v>115</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>658</v>
+      </c>
+      <c r="X87" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>661</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>662</v>
+      </c>
+      <c r="J88" t="s">
+        <v>663</v>
+      </c>
+      <c r="K88" t="s">
+        <v>664</v>
+      </c>
+      <c r="L88" t="s">
+        <v>665</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>657</v>
+      </c>
+      <c r="O88" t="s">
+        <v>101</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>666</v>
+      </c>
+      <c r="X88" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>669</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>670</v>
+      </c>
+      <c r="J89" t="s">
+        <v>671</v>
+      </c>
+      <c r="K89" t="s">
+        <v>672</v>
+      </c>
+      <c r="L89" t="s">
+        <v>673</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>674</v>
+      </c>
+      <c r="O89" t="s">
+        <v>101</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>643</v>
+      </c>
+      <c r="X89" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>676</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>677</v>
+      </c>
+      <c r="J90" t="s">
+        <v>678</v>
+      </c>
+      <c r="K90" t="s">
+        <v>679</v>
+      </c>
+      <c r="L90" t="s">
+        <v>680</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>681</v>
+      </c>
+      <c r="O90" t="s">
+        <v>101</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>666</v>
+      </c>
+      <c r="X90" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>683</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>684</v>
+      </c>
+      <c r="J91" t="s">
+        <v>685</v>
+      </c>
+      <c r="K91" t="s">
+        <v>686</v>
+      </c>
+      <c r="L91" t="s">
+        <v>687</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>688</v>
+      </c>
+      <c r="O91" t="s">
+        <v>101</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>666</v>
+      </c>
+      <c r="X91" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>690</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>691</v>
+      </c>
+      <c r="J92" t="s">
+        <v>692</v>
+      </c>
+      <c r="K92" t="s">
+        <v>693</v>
+      </c>
+      <c r="L92" t="s">
+        <v>694</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>695</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>666</v>
+      </c>
+      <c r="X92" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>697</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>698</v>
+      </c>
+      <c r="J93" t="s">
+        <v>699</v>
+      </c>
+      <c r="K93" t="s">
+        <v>700</v>
+      </c>
+      <c r="L93" t="s">
+        <v>701</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s">
+        <v>695</v>
+      </c>
+      <c r="O93" t="s">
+        <v>101</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>666</v>
+      </c>
+      <c r="X93" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>703</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>704</v>
+      </c>
+      <c r="J94" t="s">
+        <v>705</v>
+      </c>
+      <c r="K94" t="s">
+        <v>706</v>
+      </c>
+      <c r="L94" t="s">
+        <v>707</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>695</v>
+      </c>
+      <c r="O94" t="s">
+        <v>71</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>708</v>
+      </c>
+      <c r="X94" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>711</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>712</v>
+      </c>
+      <c r="J95" t="s">
+        <v>713</v>
+      </c>
+      <c r="K95" t="s">
+        <v>714</v>
+      </c>
+      <c r="L95" t="s">
+        <v>715</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>716</v>
+      </c>
+      <c r="O95" t="s">
+        <v>101</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>666</v>
+      </c>
+      <c r="X95" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>718</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>719</v>
+      </c>
+      <c r="J96" t="s">
+        <v>720</v>
+      </c>
+      <c r="K96" t="s">
+        <v>721</v>
+      </c>
+      <c r="L96" t="s">
+        <v>722</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>723</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>724</v>
+      </c>
+      <c r="J97" t="s">
+        <v>725</v>
+      </c>
+      <c r="K97" t="s">
+        <v>726</v>
+      </c>
+      <c r="L97" t="s">
+        <v>727</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>728</v>
+      </c>
+      <c r="O97" t="s">
+        <v>101</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>2</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>36230</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>730</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>731</v>
+      </c>
+      <c r="J98" t="s">
+        <v>732</v>
+      </c>
+      <c r="K98" t="s">
+        <v>733</v>
+      </c>
+      <c r="L98" t="s">
+        <v>734</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>735</v>
       </c>
     </row>
   </sheetData>
